--- a/Project6/Project6i.xlsx
+++ b/Project6/Project6i.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V anno/II semestre/Molecular Modelling for Processes/MMfP/Project6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V_anno/II_semestre/Molecular_Modeling_for_Process_Engineering/MMfP/Project6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF3B0F0-C0D7-604E-A18C-840D1CE6C370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6808E1-D0FF-254D-9794-E540F58F32AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{358C3946-A9E6-BD49-9D1D-BD2010FE3E32}"/>
   </bookViews>
@@ -176,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,8 +266,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +304,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D93D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -426,66 +438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -496,66 +448,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -660,63 +552,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -725,109 +722,84 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="13" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1356,8 +1328,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>147674</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -1471,7 +1443,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -1588,8 +1560,8 @@
       <xdr:rowOff>137849</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7138493" cy="1116716"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -1631,6 +1603,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1741,6 +1714,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2118,7 +2092,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -2793,8 +2767,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>60157</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41">
@@ -3514,7 +3488,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41">
@@ -4237,8 +4211,8 @@
       <xdr:rowOff>22279</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7138493" cy="1116716"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -4280,6 +4254,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4390,6 +4365,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4732,7 +4708,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -5581,8 +5557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E67D6CF-1DE0-4C4D-8BCA-BE74FEDBED15}">
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="AC52" sqref="AC52"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5602,49 +5578,49 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="41" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="50"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:21" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="51"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="M4" s="4" t="s">
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="M4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -5652,2022 +5628,2004 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="48"/>
-      <c r="M5" s="5" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
+      <c r="M5" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="12"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="67"/>
     </row>
     <row r="7" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="51"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="30" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="78">
         <v>1</v>
       </c>
-      <c r="O7" s="15">
-        <v>272.10000000000002</v>
-      </c>
-      <c r="P7" s="15">
+      <c r="O7" s="79">
+        <v>27.210699999999999</v>
+      </c>
+      <c r="P7" s="79">
         <v>219474.63</v>
       </c>
-      <c r="Q7" s="15">
-        <v>628</v>
-      </c>
-      <c r="R7" s="15">
+      <c r="Q7" s="79">
+        <v>627.50300000000004</v>
+      </c>
+      <c r="R7" s="79">
         <v>2625.5</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="79">
         <v>315777</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="80">
         <v>4.3599999999999999E-18</v>
       </c>
-      <c r="U7" s="17">
-        <v>6580000000000000</v>
+      <c r="U7" s="81">
+        <v>6579660000000000</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="9">
         <v>-39.672823999999999</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="9">
         <f>-39.731818</f>
         <v>-39.731817999999997</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="9">
         <v>-39.988836999999997</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="9">
         <v>-39.979565000000001</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="9">
         <f>-39.72686368+0.05403474</f>
         <v>-39.672828940000002</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="9">
         <f>-39.78306863+0.05124605</f>
         <v>-39.731822579999999</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="9">
         <f>-40.03891726+0.05007144</f>
         <v>-39.988845819999995</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="82">
         <v>3.6750199999999997E-2</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="83">
         <v>1</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="83">
         <v>8065.73</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="83">
         <v>23.0609</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="83">
         <v>96.486900000000006</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="83">
         <v>11604.9</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="84">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="U8" s="21">
-        <v>2.42E+19</v>
+      <c r="U8" s="85">
+        <v>241804000000000</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="9">
         <v>-40.132621999999998</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="9">
         <v>-40.233103</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="9">
         <v>-40.465164999999999</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="9">
         <v>-40.450519999999997</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="9">
         <f>-40.18055417+0.0479287</f>
         <v>-40.132625470000001</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="9">
         <f>-40.27912911+0.04603855</f>
         <v>-40.233090560000001</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="9">
         <f xml:space="preserve"> -40.51061105+0.04546992</f>
         <v>-40.465141129999999</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="22">
-        <v>4.5600000000000004E-6</v>
-      </c>
-      <c r="O9" s="20">
-        <v>1.2400000000000001E-4</v>
-      </c>
-      <c r="P9" s="19">
+      <c r="N9" s="86">
+        <v>4.5563300000000003E-6</v>
+      </c>
+      <c r="O9" s="83">
+        <v>1.23981E-4</v>
+      </c>
+      <c r="P9" s="83">
         <v>1</v>
       </c>
-      <c r="Q9" s="19">
-        <v>2.8600000000000001E-3</v>
-      </c>
-      <c r="R9" s="19">
-        <v>1.196E-2</v>
-      </c>
-      <c r="S9" s="19">
+      <c r="Q9" s="83">
+        <v>2.8590999999999998E-3</v>
+      </c>
+      <c r="R9" s="83">
+        <v>1.1963E-2</v>
+      </c>
+      <c r="S9" s="83">
         <v>1.42879</v>
       </c>
-      <c r="T9" s="20">
-        <v>1.9899999999999999E-23</v>
-      </c>
-      <c r="U9" s="21">
-        <v>30000000000</v>
+      <c r="T9" s="87">
+        <v>1.9863000000000001E-23</v>
+      </c>
+      <c r="U9" s="88">
+        <v>29979300000</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="9">
         <v>-40.133391000000003</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="9">
         <v>-40.235066000000003</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="9">
         <v>-40.467669000000001</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="9">
         <v>-40.452173000000002</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="9">
         <f>-40.18119233+0.0477973</f>
         <v>-40.133395030000003</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="9">
         <f>-40.28079954+0.04574613</f>
         <v>-40.235053409999999</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="9">
         <f>-40.51295684+0.04529383</f>
         <v>-40.467663010000003</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="82">
         <v>1.59362E-3</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="83">
         <v>4.3363400000000003E-2</v>
       </c>
-      <c r="P10" s="19">
-        <v>350</v>
-      </c>
-      <c r="Q10" s="19">
+      <c r="P10" s="83">
+        <v>349.75700000000001</v>
+      </c>
+      <c r="Q10" s="83">
         <v>1</v>
       </c>
-      <c r="R10" s="19">
-        <v>418</v>
-      </c>
-      <c r="S10" s="19">
-        <v>503</v>
-      </c>
-      <c r="T10" s="20">
+      <c r="R10" s="83">
+        <v>4.1840000000000002</v>
+      </c>
+      <c r="S10" s="83">
+        <v>503.22800000000001</v>
+      </c>
+      <c r="T10" s="87">
         <v>6.9500000000000005E-21</v>
       </c>
-      <c r="U10" s="21">
-        <v>10500000000000</v>
+      <c r="U10" s="85">
+        <v>10485400000000</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="9">
         <v>-40.133434000000001</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="9">
         <v>-40.235318999999997</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="9">
         <v>-40.467695999999997</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="9">
         <v>-40.452191999999997</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="9">
         <f>-40.18122083+0.04778305</f>
         <v>-40.133437780000001</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="9">
         <f>-40.28100727+0.04570028</f>
         <v>-40.235306990000005</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="9">
         <f>-40.51291095+0.04527898</f>
         <v>-40.467631969999999</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="82">
         <v>3.8088E-4</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="83">
         <v>1.0364099999999999E-2</v>
       </c>
-      <c r="P11" s="19">
-        <v>84</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="R11" s="19">
+      <c r="P11" s="83">
+        <v>83.593000000000004</v>
+      </c>
+      <c r="Q11" s="83">
+        <v>0.23900099999999999</v>
+      </c>
+      <c r="R11" s="83">
         <v>1</v>
       </c>
-      <c r="S11" s="19">
-        <v>120</v>
-      </c>
-      <c r="T11" s="20">
+      <c r="S11" s="83">
+        <v>120.274</v>
+      </c>
+      <c r="T11" s="87">
         <v>1.6599999999999999E-21</v>
       </c>
-      <c r="U11" s="21">
-        <v>2510000000000</v>
+      <c r="U11" s="85">
+        <v>2506070000000</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="9">
         <v>-40.151747999999998</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="9">
         <v>-40.314813000000001</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="9">
         <v>-40.472014999999999</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="9">
         <v>-40.458725000000001</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="86">
         <v>3.1667800000000002E-6</v>
       </c>
-      <c r="O12" s="20">
-        <v>8.6169999999999997E-5</v>
-      </c>
-      <c r="P12" s="19">
+      <c r="O12" s="87">
+        <v>8.6170500000000004E-5</v>
+      </c>
+      <c r="P12" s="83">
         <v>0.69502799999999998</v>
       </c>
-      <c r="Q12" s="19">
-        <v>1.99E-3</v>
-      </c>
-      <c r="R12" s="19">
-        <v>8.3099999999999997E-3</v>
-      </c>
-      <c r="S12" s="19">
+      <c r="Q12" s="83">
+        <v>1.9872000000000002E-3</v>
+      </c>
+      <c r="R12" s="83">
+        <v>8.3140000000000002E-3</v>
+      </c>
+      <c r="S12" s="83">
         <v>1</v>
       </c>
-      <c r="T12" s="20">
-        <v>1.3800000000000001E-23</v>
-      </c>
-      <c r="U12" s="21">
-        <v>20800000000</v>
+      <c r="T12" s="87">
+        <v>1.38054E-23</v>
+      </c>
+      <c r="U12" s="88">
+        <v>20836400000</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="9">
         <v>-40.166545999999997</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="9">
         <v>-40.366247999999999</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="9">
         <v>-40.493653999999999</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="9">
         <v>-40.476664999999997</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="22">
-        <v>2.29E+17</v>
-      </c>
-      <c r="O13" s="20">
-        <v>6.24E+18</v>
-      </c>
-      <c r="P13" s="20">
-        <v>5.0300000000000001E+22</v>
-      </c>
-      <c r="Q13" s="20">
+      <c r="N13" s="86">
+        <v>2.294E+17</v>
+      </c>
+      <c r="O13" s="87">
+        <v>6.24181E+18</v>
+      </c>
+      <c r="P13" s="87">
+        <v>5.0344500000000003E+22</v>
+      </c>
+      <c r="Q13" s="87">
         <v>1.44E+20</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="87">
         <v>6.02E+20</v>
       </c>
-      <c r="S13" s="20">
-        <v>7.2399999999999996E+22</v>
-      </c>
-      <c r="T13" s="19">
+      <c r="S13" s="87">
+        <v>7.2435399999999999E+22</v>
+      </c>
+      <c r="T13" s="83">
         <v>1</v>
       </c>
-      <c r="U13" s="21">
-        <v>1.5099999999999999E+33</v>
+      <c r="U13" s="85">
+        <v>1.5093E+33</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="10">
         <v>-40.152977</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="10">
         <v>-40.322744</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="10">
         <v>-40.476399999999998</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="10">
         <v>-40.461621999999998</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="10">
         <f>-40.19963317+0.04669112</f>
         <v>-40.15294205</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="10">
         <f>-40.36772651+0.0450044</f>
         <v>-40.322722109999994</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="10">
         <f>-40.52052964+0.04420393</f>
         <v>-40.476325709999998</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="25">
-        <v>1.52E-16</v>
-      </c>
-      <c r="O14" s="26">
-        <v>4.1400000000000002E-15</v>
-      </c>
-      <c r="P14" s="26">
-        <v>3.3400000000000002E-11</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>9.5400000000000002E-14</v>
-      </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="26">
-        <v>4.8000000000000002E-11</v>
-      </c>
-      <c r="T14" s="26">
-        <v>6.6299999999999999E-34</v>
-      </c>
-      <c r="U14" s="28">
+      <c r="N14" s="89">
+        <v>1.5198300000000001E-16</v>
+      </c>
+      <c r="O14" s="90">
+        <v>4.13558E-15</v>
+      </c>
+      <c r="P14" s="90">
+        <v>3.3356499999999997E-11</v>
+      </c>
+      <c r="Q14" s="90">
+        <v>9.5370000000000002E-14</v>
+      </c>
+      <c r="R14" s="91"/>
+      <c r="S14" s="90">
+        <v>4.7993E-11</v>
+      </c>
+      <c r="T14" s="90">
+        <v>6.62561E-34</v>
+      </c>
+      <c r="U14" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B23" s="51"/>
-      <c r="C23" s="45" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46" t="s">
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
     </row>
     <row r="24" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="51"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="51"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="24"/>
+      <c r="G25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="51"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="54" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="9">
         <v>-39.043491000000003</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="9">
         <v>-39.083143999999997</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="7">
         <v>-39.313195999999998</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="13">
         <v>-39.302945999999999</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="9">
         <v>-39.515365000000003</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="9">
         <v>-39.591605999999999</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="7">
         <v>-39.801091999999997</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="13">
         <v>-39.786034000000001</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="52" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="9">
         <v>-39.517406000000001</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="9">
         <v>-39.595306999999998</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="7">
         <v>-39.805411999999997</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="13">
         <v>-39.789332000000002</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="9">
         <v>-39.517507999999999</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="9">
         <v>-39.595511999999999</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="7">
         <v>-39.805484</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="13">
         <v>-39.789417</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="29"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="9">
         <v>-39.533228000000001</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="9">
         <v>-39.660615</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="7">
         <v>-39.809691999999998</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="13">
         <v>-39.795780999999998</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="29"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="52" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="9">
         <v>-39.546917999999998</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="9">
         <v>-39.705406000000004</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="7">
         <v>-39.828997000000001</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="13">
         <v>-39.811981000000003</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="29"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
-      <c r="B33" s="53" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="10">
         <v>-39.535083</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="10">
         <v>-39.668101</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="22">
         <v>-39.814700999999999</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="14">
         <v>-39.799382999999999</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="29"/>
-      <c r="M33" s="76" t="s">
+      <c r="J33" s="7"/>
+      <c r="M33" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="81">
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="36">
         <v>103.3</v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B39" s="59"/>
-      <c r="C39" s="41" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="29"/>
-      <c r="N39" s="38" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="7"/>
+      <c r="N39" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
     </row>
     <row r="40" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="51"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="29"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="7"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
     </row>
     <row r="41" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="51"/>
-      <c r="C41" s="45" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46" t="s">
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="46"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="29"/>
-      <c r="N41" s="78" t="s">
+      <c r="H41" s="62"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="7"/>
+      <c r="N41" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="78" t="s">
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="82" t="s">
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="W41" s="83"/>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="84"/>
-      <c r="Z41" s="82" t="s">
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AA41" s="83"/>
-      <c r="AB41" s="83"/>
-      <c r="AC41" s="84"/>
-      <c r="AD41" s="82" t="s">
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AE41" s="83"/>
-      <c r="AF41" s="83"/>
-      <c r="AG41" s="84"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="46"/>
     </row>
     <row r="42" spans="1:33" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="51"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="29"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="80"/>
-      <c r="R42" s="79"/>
-      <c r="S42" s="77"/>
-      <c r="T42" s="77"/>
-      <c r="U42" s="80"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="86"/>
-      <c r="X42" s="86"/>
-      <c r="Y42" s="87"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="86"/>
-      <c r="AB42" s="86"/>
-      <c r="AC42" s="87"/>
-      <c r="AD42" s="85"/>
-      <c r="AE42" s="86"/>
-      <c r="AF42" s="86"/>
-      <c r="AG42" s="87"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="7"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="49"/>
     </row>
     <row r="43" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="51"/>
-      <c r="C43" s="30" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="30" t="s">
+      <c r="F43" s="24"/>
+      <c r="G43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="N43" s="30" t="s">
+      <c r="J43" s="7"/>
+      <c r="N43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O43" s="30" t="s">
+      <c r="O43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="33" t="s">
+      <c r="P43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="30" t="s">
+      <c r="Q43" s="12"/>
+      <c r="R43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S43" s="30" t="s">
+      <c r="S43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="57" t="s">
+      <c r="T43" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="58"/>
-      <c r="V43" s="30" t="s">
+      <c r="U43" s="24"/>
+      <c r="V43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W43" s="30" t="s">
+      <c r="W43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="X43" s="57" t="s">
+      <c r="X43" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="30" t="s">
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AA43" s="30" t="s">
+      <c r="AA43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AB43" s="57" t="s">
+      <c r="AB43" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="30" t="s">
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AE43" s="30" t="s">
+      <c r="AE43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AF43" s="57" t="s">
+      <c r="AF43" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AG43" s="58"/>
+      <c r="AG43" s="24"/>
     </row>
     <row r="44" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="51"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="30" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="35" t="s">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="29"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="30" t="s">
+      <c r="J44" s="7"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="30" t="s">
+      <c r="Q44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="54" t="s">
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="U44" s="34" t="s">
+      <c r="U44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="30" t="s">
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Y44" s="30" t="s">
+      <c r="Y44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="30" t="s">
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AC44" s="30" t="s">
+      <c r="AC44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="30" t="s">
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AG44" s="30" t="s">
+      <c r="AG44" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="9">
         <v>-0.466582</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="9">
         <v>-0.46658185038400002</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="9">
         <v>-0.46753299999999998</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="9">
         <v>-0.469746</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="35" t="s">
+      <c r="I45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="29"/>
-      <c r="M45" s="75" t="s">
+      <c r="J45" s="7"/>
+      <c r="M45" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="N45" s="30">
+      <c r="N45" s="8">
         <f>C8*$Q$7</f>
-        <v>-24914.533471999999</v>
-      </c>
-      <c r="O45" s="30">
+        <v>-24894.816078472002</v>
+      </c>
+      <c r="O45" s="8">
         <f t="shared" ref="O45:Q45" si="0">D8*$Q$7</f>
-        <v>-24951.581703999997</v>
-      </c>
-      <c r="P45" s="30">
+        <v>-24931.834990454001</v>
+      </c>
+      <c r="P45" s="8">
         <f t="shared" si="0"/>
-        <v>-25112.989635999998</v>
-      </c>
-      <c r="Q45" s="30">
+        <v>-25093.115184011</v>
+      </c>
+      <c r="Q45" s="8">
         <f t="shared" si="0"/>
-        <v>-25107.166820000002</v>
-      </c>
-      <c r="R45" s="30">
+        <v>-25087.296976195001</v>
+      </c>
+      <c r="R45" s="8">
         <f>C27*$Q$7</f>
-        <v>-24519.312348000003</v>
-      </c>
-      <c r="S45" s="30">
+        <v>-24499.907732973003</v>
+      </c>
+      <c r="S45" s="8">
         <f t="shared" ref="S45:U45" si="1">D27*$Q$7</f>
-        <v>-24544.214431999997</v>
-      </c>
-      <c r="T45" s="30">
+        <v>-24524.790109432</v>
+      </c>
+      <c r="T45" s="8">
         <f t="shared" si="1"/>
-        <v>-24688.687087999999</v>
-      </c>
-      <c r="U45" s="30">
+        <v>-24669.148429588</v>
+      </c>
+      <c r="U45" s="8">
         <f t="shared" si="1"/>
-        <v>-24682.250088000001</v>
-      </c>
-      <c r="V45" s="30">
+        <v>-24662.716523838</v>
+      </c>
+      <c r="V45" s="8">
         <f>C45*$Q$7</f>
-        <v>-293.01349599999998</v>
-      </c>
-      <c r="W45" s="30">
+        <v>-292.78160474600003</v>
+      </c>
+      <c r="W45" s="8">
         <f t="shared" ref="W45:Y45" si="2">D45*$Q$7</f>
-        <v>-293.01340204115201</v>
-      </c>
-      <c r="X45" s="30">
+        <v>-292.78151086151121</v>
+      </c>
+      <c r="X45" s="8">
         <f t="shared" si="2"/>
-        <v>-293.610724</v>
-      </c>
-      <c r="Y45" s="30">
+        <v>-293.37836009900002</v>
+      </c>
+      <c r="Y45" s="8">
         <f t="shared" si="2"/>
-        <v>-295.00048800000002</v>
-      </c>
-      <c r="Z45" s="90">
+        <v>-294.76702423800003</v>
+      </c>
+      <c r="Z45" s="8">
         <f>N45-R45-V45</f>
-        <v>-102.20762799999608</v>
-      </c>
-      <c r="AA45" s="90">
+        <v>-102.12674075299952</v>
+      </c>
+      <c r="AA45" s="8">
         <f t="shared" ref="AA45:AC45" si="3">O45-S45-W45</f>
-        <v>-114.3538699588475</v>
-      </c>
-      <c r="AB45" s="90">
+        <v>-114.26337016048927</v>
+      </c>
+      <c r="AB45" s="8">
         <f t="shared" si="3"/>
-        <v>-130.69182399999966</v>
-      </c>
-      <c r="AC45" s="90">
+        <v>-130.58839432399964</v>
+      </c>
+      <c r="AC45" s="8">
         <f t="shared" si="3"/>
-        <v>-129.91624400000148</v>
-      </c>
-      <c r="AD45" s="91">
+        <v>-129.81342811900043</v>
+      </c>
+      <c r="AD45" s="38">
         <f>ABS($Q$33+Z45)/$Q$33</f>
-        <v>1.057475314621413E-2</v>
-      </c>
-      <c r="AE45" s="91">
+        <v>1.1357785546955211E-2</v>
+      </c>
+      <c r="AE45" s="38">
         <f t="shared" ref="AE45:AG45" si="4">ABS($Q$33+AA45)/$Q$33</f>
-        <v>0.10700745361904647</v>
-      </c>
-      <c r="AF45" s="91">
+        <v>0.10613136651006076</v>
+      </c>
+      <c r="AF45" s="38">
         <f t="shared" si="4"/>
-        <v>0.26516770571151654</v>
-      </c>
-      <c r="AG45" s="91">
+        <v>0.26416645037753766</v>
+      </c>
+      <c r="AG45" s="38">
         <f t="shared" si="4"/>
-        <v>0.25765967086158265</v>
+        <v>0.2566643573959384</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="B46" s="52" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="9">
         <v>-0.49823299999999998</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="9">
         <v>-0.49823290920199997</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="9">
         <v>-0.50027299999999997</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="9">
         <v>-0.50217699999999998</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G46" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J46" s="29"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="31">
+      <c r="J46" s="7"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="9">
         <f t="shared" ref="N46:N51" si="5">C9*$Q$7</f>
-        <v>-25203.286615999998</v>
-      </c>
-      <c r="O46" s="31">
+        <v>-25183.340702866</v>
+      </c>
+      <c r="O46" s="9">
         <f t="shared" ref="O46:O51" si="6">D9*$Q$7</f>
-        <v>-25266.388684000001</v>
-      </c>
-      <c r="P46" s="31">
+        <v>-25246.392831809</v>
+      </c>
+      <c r="P46" s="9">
         <f t="shared" ref="P46:P51" si="7">E9*$Q$7</f>
-        <v>-25412.123619999998</v>
-      </c>
-      <c r="Q46" s="31">
+        <v>-25392.012432995001</v>
+      </c>
+      <c r="Q46" s="9">
         <f t="shared" ref="Q46:Q51" si="8">F9*$Q$7</f>
-        <v>-25402.92656</v>
-      </c>
-      <c r="R46" s="31">
+        <v>-25382.82265156</v>
+      </c>
+      <c r="R46" s="9">
         <f t="shared" ref="R46:R51" si="9">C28*$Q$7</f>
-        <v>-24815.649220000003</v>
-      </c>
-      <c r="S46" s="31">
+        <v>-24796.010083595003</v>
+      </c>
+      <c r="S46" s="9">
         <f t="shared" ref="S46:S51" si="10">D28*$Q$7</f>
-        <v>-24863.528567999998</v>
-      </c>
-      <c r="T46" s="31">
+        <v>-24843.851539818002</v>
+      </c>
+      <c r="T46" s="9">
         <f t="shared" ref="T46:T51" si="11">E28*$Q$7</f>
-        <v>-24995.085776</v>
-      </c>
-      <c r="U46" s="31">
+        <v>-24975.304633275999</v>
+      </c>
+      <c r="U46" s="9">
         <f t="shared" ref="U46:U51" si="12">F28*$Q$7</f>
-        <v>-24985.629352</v>
-      </c>
-      <c r="V46" s="31">
+        <v>-24965.855693102003</v>
+      </c>
+      <c r="V46" s="9">
         <f t="shared" ref="V46:V51" si="13">C46*$Q$7</f>
-        <v>-312.89032399999996</v>
-      </c>
-      <c r="W46" s="31">
+        <v>-312.64270219899998</v>
+      </c>
+      <c r="W46" s="9">
         <f t="shared" ref="W46:W51" si="14">D46*$Q$7</f>
-        <v>-312.890266978856</v>
-      </c>
-      <c r="X46" s="31">
+        <v>-312.64264522298259</v>
+      </c>
+      <c r="X46" s="9">
         <f t="shared" ref="X46:X51" si="15">E46*$Q$7</f>
-        <v>-314.17144399999995</v>
-      </c>
-      <c r="Y46" s="31">
+        <v>-313.92280831900001</v>
+      </c>
+      <c r="Y46" s="9">
         <f t="shared" ref="Y46:Y51" si="16">F46*$Q$7</f>
-        <v>-315.36715599999997</v>
-      </c>
-      <c r="Z46" s="88">
+        <v>-315.117574031</v>
+      </c>
+      <c r="Z46" s="9">
         <f t="shared" ref="Z46:Z51" si="17">N46-R46-V46</f>
-        <v>-74.74707199999466</v>
-      </c>
-      <c r="AA46" s="88">
+        <v>-74.687917071996992</v>
+      </c>
+      <c r="AA46" s="9">
         <f t="shared" ref="AA46:AA51" si="18">O46-S46-W46</f>
-        <v>-89.969849021147468</v>
-      </c>
-      <c r="AB46" s="88">
+        <v>-89.898646768015112</v>
+      </c>
+      <c r="AB46" s="9">
         <f t="shared" ref="AB46:AB51" si="19">P46-T46-X46</f>
-        <v>-102.86639999999863</v>
-      </c>
-      <c r="AC46" s="88">
+        <v>-102.78499140000264</v>
+      </c>
+      <c r="AC46" s="9">
         <f t="shared" ref="AC46:AC51" si="20">Q46-U46-Y46</f>
-        <v>-101.93005199999999</v>
-      </c>
-      <c r="AD46" s="89">
+        <v>-101.84938442699695</v>
+      </c>
+      <c r="AD46" s="37">
         <f t="shared" ref="AD46:AD51" si="21">ABS($Q$33+Z46)/$Q$33</f>
-        <v>0.27640782187807683</v>
-      </c>
-      <c r="AE46" s="89">
+        <v>0.27698047364959349</v>
+      </c>
+      <c r="AE46" s="37">
         <f t="shared" ref="AE46:AE51" si="22">ABS($Q$33+AA46)/$Q$33</f>
-        <v>0.12904308788821423</v>
-      </c>
-      <c r="AF46" s="89">
+        <v>0.12973236429801438</v>
+      </c>
+      <c r="AF46" s="37">
         <f t="shared" ref="AF46:AF51" si="23">ABS($Q$33+AB46)/$Q$33</f>
-        <v>4.1974830590644982E-3</v>
-      </c>
-      <c r="AG46" s="89">
+        <v>4.9855624394710392E-3</v>
+      </c>
+      <c r="AG46" s="37">
         <f t="shared" ref="AG46:AG51" si="24">ABS($Q$33+AC46)/$Q$33</f>
-        <v>1.3261839303001045E-2</v>
+        <v>1.4042745140397373E-2</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
-      <c r="B47" s="52" t="s">
+      <c r="A47" s="57"/>
+      <c r="B47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="9">
         <v>-0.49823299999999998</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="9">
         <v>-0.49823290920199997</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="9">
         <v>-0.50027299999999997</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="9">
         <v>-0.50217699999999998</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="35" t="s">
+      <c r="I47" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J47" s="29"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="31">
+      <c r="J47" s="7"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="9">
         <f t="shared" si="5"/>
-        <v>-25203.769548</v>
-      </c>
-      <c r="O47" s="31">
+        <v>-25183.823252673003</v>
+      </c>
+      <c r="O47" s="9">
         <f t="shared" si="6"/>
-        <v>-25267.621448000002</v>
-      </c>
-      <c r="P47" s="31">
+        <v>-25247.624620198003</v>
+      </c>
+      <c r="P47" s="9">
         <f t="shared" si="7"/>
-        <v>-25413.696132000001</v>
-      </c>
-      <c r="Q47" s="31">
+        <v>-25393.583700507003</v>
+      </c>
+      <c r="Q47" s="9">
         <f t="shared" si="8"/>
-        <v>-25403.964644</v>
-      </c>
-      <c r="R47" s="31">
+        <v>-25383.859914019002</v>
+      </c>
+      <c r="R47" s="9">
         <f t="shared" si="9"/>
-        <v>-24816.930968000001</v>
-      </c>
-      <c r="S47" s="31">
+        <v>-24797.290817218003</v>
+      </c>
+      <c r="S47" s="9">
         <f t="shared" si="10"/>
-        <v>-24865.852795999999</v>
-      </c>
-      <c r="T47" s="31">
+        <v>-24846.173928421002</v>
+      </c>
+      <c r="T47" s="9">
         <f t="shared" si="11"/>
-        <v>-24997.798735999997</v>
-      </c>
-      <c r="U47" s="31">
+        <v>-24978.015446236001</v>
+      </c>
+      <c r="U47" s="9">
         <f t="shared" si="12"/>
-        <v>-24987.700496000001</v>
-      </c>
-      <c r="V47" s="31">
+        <v>-24967.925197996003</v>
+      </c>
+      <c r="V47" s="9">
         <f t="shared" si="13"/>
-        <v>-312.89032399999996</v>
-      </c>
-      <c r="W47" s="31">
+        <v>-312.64270219899998</v>
+      </c>
+      <c r="W47" s="9">
         <f t="shared" si="14"/>
-        <v>-312.890266978856</v>
-      </c>
-      <c r="X47" s="31">
+        <v>-312.64264522298259</v>
+      </c>
+      <c r="X47" s="9">
         <f t="shared" si="15"/>
-        <v>-314.17144399999995</v>
-      </c>
-      <c r="Y47" s="31">
+        <v>-313.92280831900001</v>
+      </c>
+      <c r="Y47" s="9">
         <f t="shared" si="16"/>
-        <v>-315.36715599999997</v>
-      </c>
-      <c r="Z47" s="88">
+        <v>-315.117574031</v>
+      </c>
+      <c r="Z47" s="9">
         <f t="shared" si="17"/>
-        <v>-73.948255999999674</v>
-      </c>
-      <c r="AA47" s="88">
+        <v>-73.889733255999374</v>
+      </c>
+      <c r="AA47" s="9">
         <f t="shared" si="18"/>
-        <v>-88.878385021146471</v>
-      </c>
-      <c r="AB47" s="88">
+        <v>-88.808046554018745</v>
+      </c>
+      <c r="AB47" s="9">
         <f t="shared" si="19"/>
-        <v>-101.72595200000399</v>
-      </c>
-      <c r="AC47" s="88">
+        <v>-101.64544595200192</v>
+      </c>
+      <c r="AC47" s="9">
         <f t="shared" si="20"/>
-        <v>-100.89699199999842</v>
-      </c>
-      <c r="AD47" s="89">
+        <v>-100.81714199199905</v>
+      </c>
+      <c r="AD47" s="37">
         <f t="shared" si="21"/>
-        <v>0.28414079380445617</v>
-      </c>
-      <c r="AE47" s="89">
+        <v>0.28470732569216478</v>
+      </c>
+      <c r="AE47" s="37">
         <f t="shared" si="22"/>
-        <v>0.13960905110216384</v>
-      </c>
-      <c r="AF47" s="89">
+        <v>0.14028996559517184</v>
+      </c>
+      <c r="AF47" s="37">
         <f t="shared" si="23"/>
-        <v>1.5237637947686462E-2</v>
-      </c>
-      <c r="AG47" s="89">
+        <v>1.6016980135508962E-2</v>
+      </c>
+      <c r="AG47" s="37">
         <f t="shared" si="24"/>
-        <v>2.3262420135542857E-2</v>
+        <v>2.4035411500493185E-2</v>
       </c>
     </row>
     <row r="48" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="52" t="s">
+      <c r="A48" s="57"/>
+      <c r="B48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="9">
         <v>-0.49880099999999999</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="9">
         <v>-0.49880110242300002</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="9">
         <v>-0.50166599999999995</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="9">
         <v>-0.50337600000000005</v>
       </c>
-      <c r="G48" s="31" t="s">
+      <c r="G48" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="35" t="s">
+      <c r="I48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="29"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="31">
+      <c r="J48" s="7"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="9">
         <f t="shared" si="5"/>
-        <v>-25203.796552</v>
-      </c>
-      <c r="O48" s="31">
+        <v>-25183.850235302001</v>
+      </c>
+      <c r="O48" s="9">
         <f t="shared" si="6"/>
-        <v>-25267.780331999998</v>
-      </c>
-      <c r="P48" s="31">
+        <v>-25247.783378456999</v>
+      </c>
+      <c r="P48" s="9">
         <f t="shared" si="7"/>
-        <v>-25413.713087999997</v>
-      </c>
-      <c r="Q48" s="31">
+        <v>-25393.600643088001</v>
+      </c>
+      <c r="Q48" s="9">
         <f t="shared" si="8"/>
-        <v>-25403.976575999997</v>
-      </c>
-      <c r="R48" s="31">
+        <v>-25383.871836576</v>
+      </c>
+      <c r="R48" s="9">
         <f t="shared" si="9"/>
-        <v>-24816.995024</v>
-      </c>
-      <c r="S48" s="31">
+        <v>-24797.354822524001</v>
+      </c>
+      <c r="S48" s="9">
         <f t="shared" si="10"/>
-        <v>-24865.981535999999</v>
-      </c>
-      <c r="T48" s="31">
+        <v>-24846.302566536</v>
+      </c>
+      <c r="T48" s="9">
         <f t="shared" si="11"/>
-        <v>-24997.843951999999</v>
-      </c>
-      <c r="U48" s="31">
+        <v>-24978.060626452003</v>
+      </c>
+      <c r="U48" s="9">
         <f t="shared" si="12"/>
-        <v>-24987.753875999999</v>
-      </c>
-      <c r="V48" s="31">
+        <v>-24967.978535751001</v>
+      </c>
+      <c r="V48" s="9">
         <f t="shared" si="13"/>
-        <v>-313.247028</v>
-      </c>
-      <c r="W48" s="31">
+        <v>-312.999123903</v>
+      </c>
+      <c r="W48" s="9">
         <f t="shared" si="14"/>
-        <v>-313.247092321644</v>
-      </c>
-      <c r="X48" s="31">
+        <v>-312.99918817373981</v>
+      </c>
+      <c r="X48" s="9">
         <f t="shared" si="15"/>
-        <v>-315.04624799999999</v>
-      </c>
-      <c r="Y48" s="31">
+        <v>-314.79691999799996</v>
+      </c>
+      <c r="Y48" s="9">
         <f t="shared" si="16"/>
-        <v>-316.12012800000002</v>
-      </c>
-      <c r="Z48" s="88">
+        <v>-315.86995012800003</v>
+      </c>
+      <c r="Z48" s="9">
         <f t="shared" si="17"/>
-        <v>-73.554499999999962</v>
-      </c>
-      <c r="AA48" s="88">
+        <v>-73.496288875000175</v>
+      </c>
+      <c r="AA48" s="9">
         <f t="shared" si="18"/>
-        <v>-88.551703678355125</v>
-      </c>
-      <c r="AB48" s="88">
+        <v>-88.481623747259448</v>
+      </c>
+      <c r="AB48" s="9">
         <f t="shared" si="19"/>
-        <v>-100.82288799999753</v>
-      </c>
-      <c r="AC48" s="88">
+        <v>-100.74309663799778</v>
+      </c>
+      <c r="AC48" s="9">
         <f t="shared" si="20"/>
-        <v>-100.10257199999842</v>
-      </c>
-      <c r="AD48" s="89">
+        <v>-100.0233506969987</v>
+      </c>
+      <c r="AD48" s="37">
         <f t="shared" si="21"/>
-        <v>0.28795256534365959</v>
-      </c>
-      <c r="AE48" s="89">
+        <v>0.28851608059051137</v>
+      </c>
+      <c r="AE48" s="37">
         <f t="shared" si="22"/>
-        <v>0.14277150359772384</v>
-      </c>
-      <c r="AF48" s="89">
+        <v>0.14344991532178655</v>
+      </c>
+      <c r="AF48" s="37">
         <f t="shared" si="23"/>
-        <v>2.3979787028097423E-2</v>
-      </c>
-      <c r="AG48" s="89">
+        <v>2.4752210667978867E-2</v>
+      </c>
+      <c r="AG48" s="37">
         <f t="shared" si="24"/>
-        <v>3.0952836398853628E-2</v>
+        <v>3.1719741558579789E-2</v>
       </c>
     </row>
     <row r="49" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="B49" s="52" t="s">
+      <c r="A49" s="57"/>
+      <c r="B49" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="9">
         <v>-0.499278</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="9">
         <v>-0.49927840342000002</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="9">
         <v>-0.50125799999999998</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="9">
         <v>-0.50323200000000001</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G49" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="35" t="s">
+      <c r="I49" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="29"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="31">
+      <c r="J49" s="7"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="9">
         <f t="shared" si="5"/>
-        <v>-25215.297744</v>
-      </c>
-      <c r="O49" s="31">
+        <v>-25195.342325244001</v>
+      </c>
+      <c r="O49" s="9">
         <f t="shared" si="6"/>
-        <v>-25317.702563999999</v>
-      </c>
-      <c r="P49" s="31">
+        <v>-25297.666101939001</v>
+      </c>
+      <c r="P49" s="9">
         <f t="shared" si="7"/>
-        <v>-25416.42542</v>
-      </c>
-      <c r="Q49" s="31">
+        <v>-25396.310828545</v>
+      </c>
+      <c r="Q49" s="9">
         <f t="shared" si="8"/>
-        <v>-25408.079300000001</v>
-      </c>
-      <c r="R49" s="31">
+        <v>-25387.971313675003</v>
+      </c>
+      <c r="R49" s="9">
         <f t="shared" si="9"/>
-        <v>-24826.867184000002</v>
-      </c>
-      <c r="S49" s="31">
+        <v>-24807.219169684002</v>
+      </c>
+      <c r="S49" s="9">
         <f t="shared" si="10"/>
-        <v>-24906.86622</v>
-      </c>
-      <c r="T49" s="31">
+        <v>-24887.154894345003</v>
+      </c>
+      <c r="T49" s="9">
         <f t="shared" si="11"/>
-        <v>-25000.486575999999</v>
-      </c>
-      <c r="U49" s="31">
+        <v>-24980.701159076001</v>
+      </c>
+      <c r="U49" s="9">
         <f t="shared" si="12"/>
-        <v>-24991.750467999998</v>
-      </c>
-      <c r="V49" s="31">
+        <v>-24971.971964843</v>
+      </c>
+      <c r="V49" s="9">
         <f t="shared" si="13"/>
-        <v>-313.546584</v>
-      </c>
-      <c r="W49" s="31">
+        <v>-313.29844283400001</v>
+      </c>
+      <c r="W49" s="9">
         <f t="shared" si="14"/>
-        <v>-313.54683734776</v>
-      </c>
-      <c r="X49" s="31">
+        <v>-313.29869598126027</v>
+      </c>
+      <c r="X49" s="9">
         <f t="shared" si="15"/>
-        <v>-314.79002400000002</v>
-      </c>
-      <c r="Y49" s="31">
+        <v>-314.54089877400003</v>
+      </c>
+      <c r="Y49" s="9">
         <f t="shared" si="16"/>
-        <v>-316.029696</v>
-      </c>
-      <c r="Z49" s="88">
+        <v>-315.77958969600002</v>
+      </c>
+      <c r="Z49" s="9">
         <f t="shared" si="17"/>
-        <v>-74.883975999997062</v>
-      </c>
-      <c r="AA49" s="88">
+        <v>-74.824712725998836</v>
+      </c>
+      <c r="AA49" s="9">
         <f t="shared" si="18"/>
-        <v>-97.289506652239368</v>
-      </c>
-      <c r="AB49" s="88">
+        <v>-97.212511612737558</v>
+      </c>
+      <c r="AB49" s="9">
         <f t="shared" si="19"/>
-        <v>-101.14882000000023</v>
-      </c>
-      <c r="AC49" s="88">
+        <v>-101.06877069499859</v>
+      </c>
+      <c r="AC49" s="9">
         <f t="shared" si="20"/>
-        <v>-100.29913600000287</v>
-      </c>
-      <c r="AD49" s="89">
+        <v>-100.21975913600329</v>
+      </c>
+      <c r="AD49" s="37">
         <f t="shared" si="21"/>
-        <v>0.27508251694097713</v>
-      </c>
-      <c r="AE49" s="89">
+        <v>0.27565621756051462</v>
+      </c>
+      <c r="AE49" s="37">
         <f t="shared" si="22"/>
-        <v>5.8184833957024486E-2</v>
-      </c>
-      <c r="AF49" s="89">
+        <v>5.8930187679210454E-2</v>
+      </c>
+      <c r="AF49" s="37">
         <f t="shared" si="23"/>
-        <v>2.0824588576958077E-2</v>
-      </c>
-      <c r="AG49" s="89">
+        <v>2.1599509244931328E-2</v>
+      </c>
+      <c r="AG49" s="37">
         <f t="shared" si="24"/>
-        <v>2.9049990319430032E-2</v>
+        <v>2.9818401393966187E-2</v>
       </c>
     </row>
     <row r="50" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="B50" s="52" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="9">
         <v>-0.49980999999999998</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="9">
         <v>-0.49980981130199997</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="9">
         <v>-0.50215600000000005</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="9">
         <v>-0.50397899999999995</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="G50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="35" t="s">
+      <c r="I50" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="29"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="31">
+      <c r="J50" s="7"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="9">
         <f t="shared" si="5"/>
-        <v>-25224.590887999999</v>
-      </c>
-      <c r="O50" s="31">
+        <v>-25204.628114637999</v>
+      </c>
+      <c r="O50" s="9">
         <f t="shared" si="6"/>
-        <v>-25350.003743999998</v>
-      </c>
-      <c r="P50" s="31">
+        <v>-25329.941718744001</v>
+      </c>
+      <c r="P50" s="9">
         <f t="shared" si="7"/>
-        <v>-25430.014712</v>
-      </c>
-      <c r="Q50" s="31">
+        <v>-25409.889365962001</v>
+      </c>
+      <c r="Q50" s="9">
         <f t="shared" si="8"/>
-        <v>-25419.345619999996</v>
-      </c>
-      <c r="R50" s="31">
+        <v>-25399.228717495</v>
+      </c>
+      <c r="R50" s="9">
         <f t="shared" si="9"/>
-        <v>-24835.464504</v>
-      </c>
-      <c r="S50" s="31">
+        <v>-24815.809685754</v>
+      </c>
+      <c r="S50" s="9">
         <f t="shared" si="10"/>
-        <v>-24934.994968000003</v>
-      </c>
-      <c r="T50" s="31">
+        <v>-24915.261381218002</v>
+      </c>
+      <c r="T50" s="9">
         <f t="shared" si="11"/>
-        <v>-25012.610116</v>
-      </c>
-      <c r="U50" s="31">
+        <v>-24992.815104491001</v>
+      </c>
+      <c r="U50" s="9">
         <f t="shared" si="12"/>
-        <v>-25001.924068</v>
-      </c>
-      <c r="V50" s="31">
+        <v>-24982.137513443002</v>
+      </c>
+      <c r="V50" s="9">
         <f t="shared" si="13"/>
-        <v>-313.88067999999998</v>
-      </c>
-      <c r="W50" s="31">
+        <v>-313.63227443</v>
+      </c>
+      <c r="W50" s="9">
         <f t="shared" si="14"/>
-        <v>-313.880561497656</v>
-      </c>
-      <c r="X50" s="31">
+        <v>-313.6321560214389</v>
+      </c>
+      <c r="X50" s="9">
         <f t="shared" si="15"/>
-        <v>-315.35396800000001</v>
-      </c>
-      <c r="Y50" s="31">
+        <v>-315.10439646800006</v>
+      </c>
+      <c r="Y50" s="9">
         <f t="shared" si="16"/>
-        <v>-316.49881199999999</v>
-      </c>
-      <c r="Z50" s="88">
+        <v>-316.24833443699998</v>
+      </c>
+      <c r="Z50" s="9">
         <f t="shared" si="17"/>
-        <v>-75.24570399999925</v>
-      </c>
-      <c r="AA50" s="88">
+        <v>-75.186154453998427</v>
+      </c>
+      <c r="AA50" s="9">
         <f t="shared" si="18"/>
-        <v>-101.12821450233912</v>
-      </c>
-      <c r="AB50" s="88">
+        <v>-101.04818150455986</v>
+      </c>
+      <c r="AB50" s="9">
         <f t="shared" si="19"/>
-        <v>-102.0506280000003</v>
-      </c>
-      <c r="AC50" s="88">
+        <v>-101.96986500299971</v>
+      </c>
+      <c r="AC50" s="9">
         <f t="shared" si="20"/>
-        <v>-100.92273999999617</v>
-      </c>
-      <c r="AD50" s="89">
+        <v>-100.84286961499794</v>
+      </c>
+      <c r="AD50" s="37">
         <f t="shared" si="21"/>
-        <v>0.27158079380446026</v>
-      </c>
-      <c r="AE50" s="89">
+        <v>0.27215726569217397</v>
+      </c>
+      <c r="AE50" s="37">
         <f t="shared" si="22"/>
-        <v>2.1024060964771323E-2</v>
-      </c>
-      <c r="AF50" s="89">
+        <v>2.1798823769991611E-2</v>
+      </c>
+      <c r="AF50" s="37">
         <f t="shared" si="23"/>
-        <v>1.2094598257499473E-2</v>
-      </c>
-      <c r="AG50" s="89">
+        <v>1.287642785092242E-2</v>
+      </c>
+      <c r="AG50" s="37">
         <f t="shared" si="24"/>
-        <v>2.3013165537307159E-2</v>
+        <v>2.378635416265305E-2</v>
       </c>
     </row>
     <row r="51" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="74"/>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="32">
+      <c r="C51" s="10">
         <v>-0.499334</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="10">
         <v>-0.49933431544000001</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="10">
         <v>-0.50165700000000002</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="10">
         <v>-0.50354600000000005</v>
       </c>
-      <c r="G51" s="32" t="s">
+      <c r="G51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="I51" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J51" s="29"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="32">
+      <c r="J51" s="7"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="10">
         <f t="shared" si="5"/>
-        <v>-25216.069555999999</v>
-      </c>
-      <c r="O51" s="32">
+        <v>-25196.113526431003</v>
+      </c>
+      <c r="O51" s="10">
         <f t="shared" si="6"/>
-        <v>-25322.683231999999</v>
-      </c>
-      <c r="P51" s="32">
+        <v>-25302.642828232001</v>
+      </c>
+      <c r="P51" s="10">
         <f t="shared" si="7"/>
-        <v>-25419.179199999999</v>
-      </c>
-      <c r="Q51" s="32">
+        <v>-25399.062429199999</v>
+      </c>
+      <c r="Q51" s="10">
         <f t="shared" si="8"/>
-        <v>-25409.898615999999</v>
-      </c>
-      <c r="R51" s="32">
+        <v>-25389.789189866002</v>
+      </c>
+      <c r="R51" s="10">
         <f t="shared" si="9"/>
-        <v>-24828.032124000001</v>
-      </c>
-      <c r="S51" s="32">
+        <v>-24808.383187749001</v>
+      </c>
+      <c r="S51" s="10">
         <f t="shared" si="10"/>
-        <v>-24911.567427999998</v>
-      </c>
-      <c r="T51" s="32">
+        <v>-24891.852381803001</v>
+      </c>
+      <c r="T51" s="10">
         <f t="shared" si="11"/>
-        <v>-25003.632227999999</v>
-      </c>
-      <c r="U51" s="32">
+        <v>-24983.844321603003</v>
+      </c>
+      <c r="U51" s="10">
         <f t="shared" si="12"/>
-        <v>-24994.012523999998</v>
-      </c>
-      <c r="V51" s="32">
+        <v>-24974.232230649002</v>
+      </c>
+      <c r="V51" s="10">
         <f t="shared" si="13"/>
-        <v>-313.58175199999999</v>
-      </c>
-      <c r="W51" s="32">
+        <v>-313.33358300200001</v>
+      </c>
+      <c r="W51" s="10">
         <f t="shared" si="14"/>
-        <v>-313.58195009631999</v>
-      </c>
-      <c r="X51" s="32">
+        <v>-313.33378094154637</v>
+      </c>
+      <c r="X51" s="10">
         <f t="shared" si="15"/>
-        <v>-315.04059599999999</v>
-      </c>
-      <c r="Y51" s="32">
+        <v>-314.79127247100001</v>
+      </c>
+      <c r="Y51" s="10">
         <f t="shared" si="16"/>
-        <v>-316.22688800000003</v>
-      </c>
-      <c r="Z51" s="92">
+        <v>-315.97662563800003</v>
+      </c>
+      <c r="Z51" s="10">
         <f t="shared" si="17"/>
-        <v>-74.455679999997358</v>
-      </c>
-      <c r="AA51" s="92">
+        <v>-74.396755680002173</v>
+      </c>
+      <c r="AA51" s="10">
         <f t="shared" si="18"/>
-        <v>-97.533853903680949</v>
-      </c>
-      <c r="AB51" s="92">
+        <v>-97.456665487454075</v>
+      </c>
+      <c r="AB51" s="10">
         <f t="shared" si="19"/>
-        <v>-100.5063760000001</v>
-      </c>
-      <c r="AC51" s="92">
+        <v>-100.42683512599655</v>
+      </c>
+      <c r="AC51" s="10">
         <f t="shared" si="20"/>
-        <v>-99.659204000000614</v>
-      </c>
-      <c r="AD51" s="93">
+        <v>-99.5803335789995</v>
+      </c>
+      <c r="AD51" s="39">
         <f t="shared" si="21"/>
-        <v>0.27922865440467221</v>
-      </c>
-      <c r="AE51" s="93">
+        <v>0.27979907376570984</v>
+      </c>
+      <c r="AE51" s="39">
         <f t="shared" si="22"/>
-        <v>5.5819420099893977E-2</v>
-      </c>
-      <c r="AF51" s="93">
+        <v>5.6566645813610095E-2</v>
+      </c>
+      <c r="AF51" s="39">
         <f t="shared" si="23"/>
-        <v>2.7043794772506242E-2</v>
-      </c>
-      <c r="AG51" s="93">
+        <v>2.7813793552792353E-2</v>
+      </c>
+      <c r="AG51" s="39">
         <f t="shared" si="24"/>
-        <v>3.5244878993217654E-2</v>
+        <v>3.6008387424980609E-2</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="N39:Y40"/>
-    <mergeCell ref="AD41:AG42"/>
-    <mergeCell ref="N41:Q42"/>
-    <mergeCell ref="R41:U42"/>
-    <mergeCell ref="V41:Y42"/>
-    <mergeCell ref="Z41:AC42"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M45:M51"/>
-    <mergeCell ref="C2:I3"/>
-    <mergeCell ref="C21:I22"/>
-    <mergeCell ref="C23:F24"/>
-    <mergeCell ref="G23:I24"/>
-    <mergeCell ref="C39:I40"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:I42"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="M4:P4"/>
@@ -7680,19 +7638,27 @@
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
+    <mergeCell ref="C2:I3"/>
+    <mergeCell ref="C21:I22"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="G23:I24"/>
+    <mergeCell ref="C39:I40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M45:M51"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:I42"/>
+    <mergeCell ref="N39:Y40"/>
+    <mergeCell ref="AD41:AG42"/>
+    <mergeCell ref="N41:Q42"/>
+    <mergeCell ref="R41:U42"/>
+    <mergeCell ref="V41:Y42"/>
+    <mergeCell ref="Z41:AC42"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:F14">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I14">
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7713,6 +7679,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:F51">
     <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I14">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7752,14 +7728,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD45:AG51">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7768,6 +7736,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7780,7 +7756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9929B575-9856-E34B-A8DE-9F65D85FFCD5}">
   <dimension ref="B1:R73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="94" workbookViewId="0">
+    <sheetView zoomScale="94" workbookViewId="0">
       <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
@@ -7788,1240 +7764,1246 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="69"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="70"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="70"/>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="70"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="70"/>
-      <c r="C6" s="60" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="70"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="60" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="27">
         <v>-1.105019</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="27">
         <v>-1.118187</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="27">
         <v>-1.153899</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="27">
         <v>-1.153702</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="27">
         <f>-1.11750589+0.01248746</f>
         <v>-1.1050184299999999</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="27">
         <f>-1.13013688+0.01194992</f>
         <v>-1.1181869600000001</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="27">
         <f>-1.16553776+0.01164208</f>
         <v>-1.15389568</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="27">
         <v>-1.1162369999999999</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="27">
         <v>-1.133813</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="27">
         <v>-1.165335</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="27">
         <v>-1.1644289999999999</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="27">
         <f>-1.12682783+0.01058498</f>
         <v>-1.1162428500000001</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="27">
         <f>-1.14414085+0.01032854</f>
         <v>-1.1338123100000002</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="27">
         <f>-1.17548358+0.01014962</f>
         <v>-1.1653339600000001</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="27">
         <v>-1.1162369999999999</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="27">
         <v>-1.133813</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="27">
         <v>-1.165335</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="27">
         <v>-1.1644289999999999</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="27">
         <f>-1.12682783+ 0.01058498</f>
         <v>-1.1162428500000001</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="27">
         <f>-1.14414085+0.01032854</f>
         <v>-1.1338123100000002</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="27">
         <f>-1.17548358+0.01014962</f>
         <v>-1.1653339600000001</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="27">
         <v>-1.1163540000000001</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="27">
         <v>-1.134026</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="27">
         <v>-1.165834</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="27">
         <v>-1.164709</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="27">
         <f>-1.12692381+0.01056504</f>
         <v>-1.1163587700000002</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="27">
         <f>-1.14432764+0.0103024</f>
         <v>-1.1340252399999999</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="27">
         <f>-1.1759509+0.01011704</f>
         <v>-1.16583386</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="27">
         <v>-1.1183160000000001</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="27">
         <v>-1.1449640000000001</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="27">
         <v>-1.163646</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="27">
         <v>-1.163948</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="27">
         <v>-1.122538</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="27">
         <v>-1.154339</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="27">
         <v>-1.169926</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="27">
         <v>-1.168882</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="27">
         <v>-1.1184510000000001</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="27">
         <v>-1.146055</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="27">
         <v>-1.1640919999999999</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="27">
         <v>-1.164234</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="27">
         <f>-1.12882588+0.01038512</f>
         <v>-1.1184407599999999</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="27">
         <f>-1.15621648+0.01016906</f>
         <v>-1.1460474200000001</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="27">
         <f>-1.1740263+0.00992612</f>
         <v>-1.1641001799999999</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="28">
         <v>-1.1230549999999999</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="28">
         <v>-1.156293</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="28">
         <v>-1.1704749999999999</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="28">
         <f>-1.169376</f>
         <v>-1.169376</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="69"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="70"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="70"/>
-      <c r="C23" s="66" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67" t="s">
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="68"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="70"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="77"/>
     </row>
     <row r="25" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="60" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="60" t="s">
+      <c r="F25" s="30"/>
+      <c r="G25" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="65" t="s">
+      <c r="I25" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="70"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="60" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="60" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="27">
         <v>-0.466582</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="27">
         <v>-0.46658185038400002</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="27">
         <v>-0.46753299999999998</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="27">
         <v>-0.469746</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="61" t="s">
+      <c r="I27" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="27">
         <v>-0.49823299999999998</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="27">
         <v>-0.49823290920199997</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="27">
         <v>-0.50027299999999997</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="27">
         <v>-0.50217699999999998</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="61" t="s">
+      <c r="I28" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="27">
         <v>-0.49823299999999998</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="27">
         <v>-0.49823290920199997</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="27">
         <v>-0.50027299999999997</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="27">
         <v>-0.50217699999999998</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="61" t="s">
+      <c r="I29" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="27">
         <v>-0.49880099999999999</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="27">
         <v>-0.49880110242300002</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="27">
         <v>-0.50166599999999995</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="27">
         <v>-0.50337600000000005</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="61" t="s">
+      <c r="I30" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="27">
         <v>-0.499278</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="27">
         <v>-0.49927840342000002</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="27">
         <v>-0.50125799999999998</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="27">
         <v>-0.50323200000000001</v>
       </c>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="61" t="s">
+      <c r="I31" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="27">
         <v>-0.49980999999999998</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="27">
         <v>-0.49980981130199997</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="27">
         <v>-0.50215600000000005</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="27">
         <v>-0.50397899999999995</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="61" t="s">
+      <c r="I32" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="27">
         <v>-0.499334</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="27">
         <v>-0.49933431544000001</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="27">
         <v>-0.50165700000000002</v>
       </c>
-      <c r="F33" s="61">
+      <c r="F33" s="27">
         <v>-0.50354600000000005</v>
       </c>
-      <c r="G33" s="61" t="s">
+      <c r="G33" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="61" t="s">
+      <c r="I33" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="62">
+      <c r="C34" s="28">
         <v>-0.499946</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="28">
         <v>-0.50234599999999996</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="28">
         <v>-0.50415399999999999</v>
       </c>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="62" t="s">
+      <c r="I34" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="3:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="D57" s="76" t="s">
+      <c r="D57" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="81">
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="36">
         <v>103.2</v>
       </c>
     </row>
     <row r="61" spans="3:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="94"/>
-      <c r="N61" s="94"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
     </row>
     <row r="62" spans="3:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
     </row>
     <row r="63" spans="3:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="78" t="s">
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="82" t="s">
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L63" s="83"/>
-      <c r="M63" s="83"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="82" t="s">
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P63" s="83"/>
-      <c r="Q63" s="83"/>
-      <c r="R63" s="84"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="46"/>
     </row>
     <row r="64" spans="3:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="79"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="86"/>
-      <c r="M64" s="86"/>
-      <c r="N64" s="87"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="86"/>
-      <c r="Q64" s="86"/>
-      <c r="R64" s="87"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="49"/>
     </row>
     <row r="65" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="34"/>
-      <c r="G65" s="30" t="s">
+      <c r="F65" s="12"/>
+      <c r="G65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="H65" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I65" s="57" t="s">
+      <c r="I65" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J65" s="58"/>
-      <c r="K65" s="30" t="s">
+      <c r="J65" s="24"/>
+      <c r="K65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L65" s="30" t="s">
+      <c r="L65" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M65" s="57" t="s">
+      <c r="M65" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N65" s="58"/>
-      <c r="O65" s="30" t="s">
+      <c r="N65" s="24"/>
+      <c r="O65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P65" s="30" t="s">
+      <c r="P65" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q65" s="57" t="s">
+      <c r="Q65" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R65" s="58"/>
+      <c r="R65" s="24"/>
     </row>
     <row r="66" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="30" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="54" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="34" t="s">
+      <c r="J66" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="30" t="s">
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="30" t="s">
+      <c r="N66" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="30" t="s">
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R66" s="30" t="s">
+      <c r="R66" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="8">
         <f>C8*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-693.95193199999994</v>
-      </c>
-      <c r="D67" s="30">
+        <v>-693.40273755700002</v>
+      </c>
+      <c r="D67" s="8">
         <f>D8*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-702.22143600000004</v>
-      </c>
-      <c r="E67" s="30">
+        <v>-701.66569706100006</v>
+      </c>
+      <c r="E67" s="8">
         <f>E8*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-724.64857200000006</v>
-      </c>
-      <c r="F67" s="30">
+        <v>-724.07508419700002</v>
+      </c>
+      <c r="F67" s="8">
         <f>F8*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-724.524856</v>
-      </c>
-      <c r="G67" s="30">
+        <v>-723.951466106</v>
+      </c>
+      <c r="G67" s="8">
         <f>C27*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-293.01349599999998</v>
-      </c>
-      <c r="H67" s="30">
+        <v>-292.78160474600003</v>
+      </c>
+      <c r="H67" s="8">
         <f>D27*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-293.01340204115201</v>
-      </c>
-      <c r="I67" s="30">
+        <v>-292.78151086151121</v>
+      </c>
+      <c r="I67" s="8">
         <f>E27*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-293.610724</v>
-      </c>
-      <c r="J67" s="30">
+        <v>-293.37836009900002</v>
+      </c>
+      <c r="J67" s="8">
         <f>F27*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-295.00048800000002</v>
-      </c>
-      <c r="K67" s="90">
+        <v>-294.76702423800003</v>
+      </c>
+      <c r="K67" s="8">
         <f>C67-2*G67</f>
-        <v>-107.92493999999999</v>
-      </c>
-      <c r="L67" s="90">
+        <v>-107.83952806499997</v>
+      </c>
+      <c r="L67" s="8">
         <f t="shared" ref="L67:N67" si="0">D67-2*H67</f>
-        <v>-116.19463191769603</v>
-      </c>
-      <c r="M67" s="90">
+        <v>-116.10267533797764</v>
+      </c>
+      <c r="M67" s="8">
         <f t="shared" si="0"/>
-        <v>-137.42712400000005</v>
-      </c>
-      <c r="N67" s="90">
+        <v>-137.31836399899998</v>
+      </c>
+      <c r="N67" s="8">
         <f t="shared" si="0"/>
-        <v>-134.52387999999996</v>
-      </c>
-      <c r="O67" s="91">
+        <v>-134.41741762999993</v>
+      </c>
+      <c r="O67" s="38">
         <f>ABS($H$57+K67)/$H$57</f>
-        <v>4.578430232558129E-2</v>
-      </c>
-      <c r="P67" s="91">
+        <v>4.4956667296511287E-2</v>
+      </c>
+      <c r="P67" s="38">
         <f t="shared" ref="P67:R67" si="1">ABS($H$57+L67)/$H$57</f>
-        <v>0.12591697594666693</v>
-      </c>
-      <c r="Q67" s="91">
+        <v>0.12502592381761279</v>
+      </c>
+      <c r="Q67" s="38">
         <f t="shared" si="1"/>
-        <v>0.33165817829457406</v>
-      </c>
-      <c r="R67" s="91">
+        <v>0.33060430231589127</v>
+      </c>
+      <c r="R67" s="38">
         <f t="shared" si="1"/>
-        <v>0.30352596899224765</v>
+        <v>0.30249435687984427</v>
       </c>
     </row>
     <row r="68" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B68" s="73"/>
-      <c r="C68" s="31">
+      <c r="B68" s="57"/>
+      <c r="C68" s="9">
         <f>C9*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-700.99683599999992</v>
-      </c>
-      <c r="D68" s="31">
+        <v>-700.442066211</v>
+      </c>
+      <c r="D68" s="9">
         <f>D9*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-712.03456399999993</v>
-      </c>
-      <c r="E68" s="31">
+        <v>-711.47105893900005</v>
+      </c>
+      <c r="E68" s="9">
         <f>E9*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-731.83037999999999</v>
-      </c>
-      <c r="F68" s="31">
+        <v>-731.25120850500002</v>
+      </c>
+      <c r="F68" s="9">
         <f>F9*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-731.26141199999995</v>
-      </c>
-      <c r="G68" s="31">
+        <v>-730.68269078699996</v>
+      </c>
+      <c r="G68" s="9">
         <f>C28*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-312.89032399999996</v>
-      </c>
-      <c r="H68" s="31">
+        <v>-312.64270219899998</v>
+      </c>
+      <c r="H68" s="9">
         <f>D28*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-312.890266978856</v>
-      </c>
-      <c r="I68" s="31">
+        <v>-312.64264522298259</v>
+      </c>
+      <c r="I68" s="9">
         <f>E28*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-314.17144399999995</v>
-      </c>
-      <c r="J68" s="31">
+        <v>-313.92280831900001</v>
+      </c>
+      <c r="J68" s="9">
         <f>F28*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-315.36715599999997</v>
-      </c>
-      <c r="K68" s="88">
+        <v>-315.117574031</v>
+      </c>
+      <c r="K68" s="9">
         <f t="shared" ref="K68:K73" si="2">C68-2*G68</f>
-        <v>-75.216187999999988</v>
-      </c>
-      <c r="L68" s="88">
+        <v>-75.156661813000028</v>
+      </c>
+      <c r="L68" s="9">
         <f t="shared" ref="L68:L73" si="3">D68-2*H68</f>
-        <v>-86.254030042287923</v>
-      </c>
-      <c r="M68" s="88">
+        <v>-86.185768493034857</v>
+      </c>
+      <c r="M68" s="9">
         <f t="shared" ref="M68:M73" si="4">E68-2*I68</f>
-        <v>-103.48749200000009</v>
-      </c>
-      <c r="N68" s="88">
+        <v>-103.405591867</v>
+      </c>
+      <c r="N68" s="9">
         <f t="shared" ref="N68:N73" si="5">F68-2*J68</f>
-        <v>-100.52710000000002</v>
-      </c>
-      <c r="O68" s="89">
+        <v>-100.44754272499995</v>
+      </c>
+      <c r="O68" s="37">
         <f t="shared" ref="O68:O72" si="6">ABS($H$57+K68)/$H$57</f>
-        <v>0.27116096899224817</v>
-      </c>
-      <c r="P68" s="89">
+        <v>0.27173777312984471</v>
+      </c>
+      <c r="P68" s="37">
         <f t="shared" ref="P68:P73" si="7">ABS($H$57+L68)/$H$57</f>
-        <v>0.16420513524914807</v>
-      </c>
-      <c r="Q68" s="89">
+        <v>0.1648665843698173</v>
+      </c>
+      <c r="Q68" s="37">
         <f t="shared" ref="Q68:Q73" si="8">ABS($H$57+M68)/$H$57</f>
-        <v>2.7857751937992786E-3</v>
-      </c>
-      <c r="R68" s="89">
+        <v>1.9921692538759249E-3</v>
+      </c>
+      <c r="R68" s="37">
         <f t="shared" ref="R68:R73" si="9">ABS($H$57+N68)/$H$57</f>
-        <v>2.5900193798449458E-2</v>
+        <v>2.6671097625969521E-2</v>
       </c>
     </row>
     <row r="69" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B69" s="73"/>
-      <c r="C69" s="31">
+      <c r="B69" s="57"/>
+      <c r="C69" s="9">
         <f>C10*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-700.99683599999992</v>
-      </c>
-      <c r="D69" s="31">
+        <v>-700.442066211</v>
+      </c>
+      <c r="D69" s="9">
         <f>D10*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-712.03456399999993</v>
-      </c>
-      <c r="E69" s="31">
+        <v>-711.47105893900005</v>
+      </c>
+      <c r="E69" s="9">
         <f>E10*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-731.83037999999999</v>
-      </c>
-      <c r="F69" s="31">
+        <v>-731.25120850500002</v>
+      </c>
+      <c r="F69" s="9">
         <f>F10*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-731.26141199999995</v>
-      </c>
-      <c r="G69" s="31">
+        <v>-730.68269078699996</v>
+      </c>
+      <c r="G69" s="9">
         <f>C29*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-312.89032399999996</v>
-      </c>
-      <c r="H69" s="31">
+        <v>-312.64270219899998</v>
+      </c>
+      <c r="H69" s="9">
         <f>D29*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-312.890266978856</v>
-      </c>
-      <c r="I69" s="31">
+        <v>-312.64264522298259</v>
+      </c>
+      <c r="I69" s="9">
         <f>E29*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-314.17144399999995</v>
-      </c>
-      <c r="J69" s="31">
+        <v>-313.92280831900001</v>
+      </c>
+      <c r="J69" s="9">
         <f>F29*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-315.36715599999997</v>
-      </c>
-      <c r="K69" s="88">
+        <v>-315.117574031</v>
+      </c>
+      <c r="K69" s="9">
         <f t="shared" si="2"/>
-        <v>-75.216187999999988</v>
-      </c>
-      <c r="L69" s="88">
+        <v>-75.156661813000028</v>
+      </c>
+      <c r="L69" s="9">
         <f t="shared" si="3"/>
-        <v>-86.254030042287923</v>
-      </c>
-      <c r="M69" s="88">
+        <v>-86.185768493034857</v>
+      </c>
+      <c r="M69" s="9">
         <f t="shared" si="4"/>
-        <v>-103.48749200000009</v>
-      </c>
-      <c r="N69" s="88">
+        <v>-103.405591867</v>
+      </c>
+      <c r="N69" s="9">
         <f t="shared" si="5"/>
-        <v>-100.52710000000002</v>
-      </c>
-      <c r="O69" s="89">
+        <v>-100.44754272499995</v>
+      </c>
+      <c r="O69" s="37">
         <f t="shared" si="6"/>
-        <v>0.27116096899224817</v>
-      </c>
-      <c r="P69" s="89">
+        <v>0.27173777312984471</v>
+      </c>
+      <c r="P69" s="37">
         <f t="shared" si="7"/>
-        <v>0.16420513524914807</v>
-      </c>
-      <c r="Q69" s="89">
+        <v>0.1648665843698173</v>
+      </c>
+      <c r="Q69" s="37">
         <f t="shared" si="8"/>
-        <v>2.7857751937992786E-3</v>
-      </c>
-      <c r="R69" s="89">
+        <v>1.9921692538759249E-3</v>
+      </c>
+      <c r="R69" s="37">
         <f t="shared" si="9"/>
-        <v>2.5900193798449458E-2</v>
+        <v>2.6671097625969521E-2</v>
       </c>
     </row>
     <row r="70" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B70" s="73"/>
-      <c r="C70" s="31">
+      <c r="B70" s="57"/>
+      <c r="C70" s="9">
         <f>C11*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-701.07031200000006</v>
-      </c>
-      <c r="D70" s="31">
+        <v>-700.51548406200004</v>
+      </c>
+      <c r="D70" s="9">
         <f>D11*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-712.16832799999997</v>
-      </c>
-      <c r="E70" s="31">
+        <v>-711.60471707800002</v>
+      </c>
+      <c r="E70" s="9">
         <f>E11*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-732.14375200000006</v>
-      </c>
-      <c r="F70" s="31">
+        <v>-731.56433250200007</v>
+      </c>
+      <c r="F70" s="9">
         <f>F11*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-731.43725199999994</v>
-      </c>
-      <c r="G70" s="31">
+        <v>-730.85839162700006</v>
+      </c>
+      <c r="G70" s="9">
         <f>C30*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-313.247028</v>
-      </c>
-      <c r="H70" s="31">
+        <v>-312.999123903</v>
+      </c>
+      <c r="H70" s="9">
         <f>D30*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-313.247092321644</v>
-      </c>
-      <c r="I70" s="31">
+        <v>-312.99918817373981</v>
+      </c>
+      <c r="I70" s="9">
         <f>E30*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-315.04624799999999</v>
-      </c>
-      <c r="J70" s="31">
+        <v>-314.79691999799996</v>
+      </c>
+      <c r="J70" s="9">
         <f>F30*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-316.12012800000002</v>
-      </c>
-      <c r="K70" s="88">
+        <v>-315.86995012800003</v>
+      </c>
+      <c r="K70" s="9">
         <f t="shared" si="2"/>
-        <v>-74.576256000000058</v>
-      </c>
-      <c r="L70" s="88">
+        <v>-74.517236256000047</v>
+      </c>
+      <c r="L70" s="9">
         <f t="shared" si="3"/>
-        <v>-85.674143356711966</v>
-      </c>
-      <c r="M70" s="88">
+        <v>-85.606340730520401</v>
+      </c>
+      <c r="M70" s="9">
         <f t="shared" si="4"/>
-        <v>-102.05125600000008</v>
-      </c>
-      <c r="N70" s="88">
+        <v>-101.97049250600014</v>
+      </c>
+      <c r="N70" s="9">
         <f t="shared" si="5"/>
-        <v>-99.196995999999899</v>
-      </c>
-      <c r="O70" s="89">
+        <v>-99.118491371000005</v>
+      </c>
+      <c r="O70" s="37">
         <f t="shared" si="6"/>
-        <v>0.27736186046511574</v>
-      </c>
-      <c r="P70" s="89">
+        <v>0.27793375720930191</v>
+      </c>
+      <c r="P70" s="37">
         <f t="shared" si="7"/>
-        <v>0.16982419227992285</v>
-      </c>
-      <c r="Q70" s="89">
+        <v>0.17048119447170157</v>
+      </c>
+      <c r="Q70" s="37">
         <f t="shared" si="8"/>
-        <v>1.1131240310076769E-2</v>
-      </c>
-      <c r="R70" s="89">
+        <v>1.1913832306200207E-2</v>
+      </c>
+      <c r="R70" s="37">
         <f t="shared" si="9"/>
-        <v>3.8788798449613408E-2</v>
+        <v>3.9549502218992227E-2</v>
       </c>
     </row>
     <row r="71" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B71" s="73"/>
-      <c r="C71" s="31">
+      <c r="B71" s="57"/>
+      <c r="C71" s="9">
         <f>C12*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-702.30244800000003</v>
-      </c>
-      <c r="D71" s="31">
+        <v>-701.74664494800015</v>
+      </c>
+      <c r="D71" s="9">
         <f>D12*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-719.03739200000007</v>
-      </c>
-      <c r="E71" s="31">
+        <v>-718.46834489200012</v>
+      </c>
+      <c r="E71" s="9">
         <f>E12*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-730.76968799999997</v>
-      </c>
-      <c r="F71" s="31">
+        <v>-730.19135593800002</v>
+      </c>
+      <c r="F71" s="9">
         <f>F12*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-730.95934399999999</v>
-      </c>
-      <c r="G71" s="31">
+        <v>-730.38086184400004</v>
+      </c>
+      <c r="G71" s="9">
         <f>C31*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-313.546584</v>
-      </c>
-      <c r="H71" s="31">
+        <v>-313.29844283400001</v>
+      </c>
+      <c r="H71" s="9">
         <f>D31*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-313.54683734776</v>
-      </c>
-      <c r="I71" s="31">
+        <v>-313.29869598126027</v>
+      </c>
+      <c r="I71" s="9">
         <f>E31*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-314.79002400000002</v>
-      </c>
-      <c r="J71" s="31">
+        <v>-314.54089877400003</v>
+      </c>
+      <c r="J71" s="9">
         <f>F31*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-316.029696</v>
-      </c>
-      <c r="K71" s="88">
+        <v>-315.77958969600002</v>
+      </c>
+      <c r="K71" s="9">
         <f t="shared" si="2"/>
-        <v>-75.209280000000035</v>
-      </c>
-      <c r="L71" s="88">
+        <v>-75.149759280000126</v>
+      </c>
+      <c r="L71" s="9">
         <f t="shared" si="3"/>
-        <v>-91.94371730448006</v>
-      </c>
-      <c r="M71" s="88">
+        <v>-91.870952929479586</v>
+      </c>
+      <c r="M71" s="9">
         <f t="shared" si="4"/>
-        <v>-101.18963999999994</v>
-      </c>
-      <c r="N71" s="88">
+        <v>-101.10955838999996</v>
+      </c>
+      <c r="N71" s="9">
         <f t="shared" si="5"/>
-        <v>-98.899951999999985</v>
-      </c>
-      <c r="O71" s="89">
+        <v>-98.821682452000005</v>
+      </c>
+      <c r="O71" s="37">
         <f t="shared" si="6"/>
-        <v>0.27122790697674387</v>
-      </c>
-      <c r="P71" s="89">
+        <v>0.27180465813953369</v>
+      </c>
+      <c r="P71" s="37">
         <f t="shared" si="7"/>
-        <v>0.10907250673953432</v>
-      </c>
-      <c r="Q71" s="89">
+        <v>0.10977758789263969</v>
+      </c>
+      <c r="Q71" s="37">
         <f t="shared" si="8"/>
-        <v>1.9480232558140142E-2</v>
-      </c>
-      <c r="R71" s="89">
+        <v>2.0256217151163197E-2</v>
+      </c>
+      <c r="R71" s="37">
         <f t="shared" si="9"/>
-        <v>4.1667131782945913E-2</v>
+        <v>4.2425557635658896E-2</v>
       </c>
     </row>
     <row r="72" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B72" s="73"/>
-      <c r="C72" s="31">
+      <c r="B72" s="57"/>
+      <c r="C72" s="9">
         <f>C13*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-704.95386400000007</v>
-      </c>
-      <c r="D72" s="31">
+        <v>-704.39596261400004</v>
+      </c>
+      <c r="D72" s="9">
         <f>D13*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-724.924892</v>
-      </c>
-      <c r="E72" s="31">
+        <v>-724.35118551700009</v>
+      </c>
+      <c r="E72" s="9">
         <f>E13*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-734.713528</v>
-      </c>
-      <c r="F72" s="31">
+        <v>-734.13207477800006</v>
+      </c>
+      <c r="F72" s="9">
         <f>F13*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-734.05789600000003</v>
-      </c>
-      <c r="G72" s="31">
+        <v>-733.47696164600006</v>
+      </c>
+      <c r="G72" s="9">
         <f>C32*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-313.88067999999998</v>
-      </c>
-      <c r="H72" s="31">
+        <v>-313.63227443</v>
+      </c>
+      <c r="H72" s="9">
         <f>D32*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-313.880561497656</v>
-      </c>
-      <c r="I72" s="31">
+        <v>-313.6321560214389</v>
+      </c>
+      <c r="I72" s="9">
         <f>E32*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-315.35396800000001</v>
-      </c>
-      <c r="J72" s="31">
+        <v>-315.10439646800006</v>
+      </c>
+      <c r="J72" s="9">
         <f>F32*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-316.49881199999999</v>
-      </c>
-      <c r="K72" s="88">
+        <v>-316.24833443699998</v>
+      </c>
+      <c r="K72" s="9">
         <f t="shared" si="2"/>
-        <v>-77.192504000000099</v>
-      </c>
-      <c r="L72" s="88">
+        <v>-77.13141375400005</v>
+      </c>
+      <c r="L72" s="9">
         <f t="shared" si="3"/>
-        <v>-97.163769004687992</v>
-      </c>
-      <c r="M72" s="88">
+        <v>-97.086873474122285</v>
+      </c>
+      <c r="M72" s="9">
         <f t="shared" si="4"/>
-        <v>-104.00559199999998</v>
-      </c>
-      <c r="N72" s="88">
+        <v>-103.92328184199994</v>
+      </c>
+      <c r="N72" s="9">
         <f t="shared" si="5"/>
-        <v>-101.06027200000005</v>
-      </c>
-      <c r="O72" s="89">
+        <v>-100.9802927720001</v>
+      </c>
+      <c r="O72" s="37">
         <f t="shared" si="6"/>
-        <v>0.25201062015503783</v>
-      </c>
-      <c r="P72" s="89">
+        <v>0.25260257990310031</v>
+      </c>
+      <c r="P72" s="37">
         <f t="shared" si="7"/>
-        <v>5.8490610419690024E-2</v>
-      </c>
-      <c r="Q72" s="89">
+        <v>5.9235722149977882E-2</v>
+      </c>
+      <c r="Q72" s="37">
         <f t="shared" si="8"/>
-        <v>7.806124031007518E-3</v>
-      </c>
-      <c r="R72" s="89">
+        <v>7.0085449806195224E-3</v>
+      </c>
+      <c r="R72" s="37">
         <f t="shared" si="9"/>
-        <v>2.0733798449611901E-2</v>
+        <v>2.1508790968991325E-2</v>
       </c>
     </row>
     <row r="73" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="74"/>
-      <c r="C73" s="32">
+      <c r="B73" s="58"/>
+      <c r="C73" s="10">
         <f>C14*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-702.38722800000005</v>
-      </c>
-      <c r="D73" s="32">
+        <v>-701.8313578530001</v>
+      </c>
+      <c r="D73" s="10">
         <f>D14*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-719.72253999999998</v>
-      </c>
-      <c r="E73" s="32">
+        <v>-719.15295066500005</v>
+      </c>
+      <c r="E73" s="10">
         <f>E14*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-731.04977599999995</v>
-      </c>
-      <c r="F73" s="32">
+        <v>-730.47122227599993</v>
+      </c>
+      <c r="F73" s="10">
         <f>F14*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-731.13895200000002</v>
-      </c>
-      <c r="G73" s="32">
+        <v>-730.560327702</v>
+      </c>
+      <c r="G73" s="10">
         <f>C33*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-313.58175199999999</v>
-      </c>
-      <c r="H73" s="32">
+        <v>-313.33358300200001</v>
+      </c>
+      <c r="H73" s="10">
         <f>D33*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-313.58195009631999</v>
-      </c>
-      <c r="I73" s="32">
+        <v>-313.33378094154637</v>
+      </c>
+      <c r="I73" s="10">
         <f>E33*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-315.04059599999999</v>
-      </c>
-      <c r="J73" s="32">
+        <v>-314.79127247100001</v>
+      </c>
+      <c r="J73" s="10">
         <f>F33*'CH4-&gt;CH3 + H'!$Q$7</f>
-        <v>-316.22688800000003</v>
-      </c>
-      <c r="K73" s="92">
+        <v>-315.97662563800003</v>
+      </c>
+      <c r="K73" s="10">
         <f t="shared" si="2"/>
-        <v>-75.223724000000061</v>
-      </c>
-      <c r="L73" s="92">
+        <v>-75.164191849000076</v>
+      </c>
+      <c r="L73" s="10">
         <f t="shared" si="3"/>
-        <v>-92.558639807360009</v>
-      </c>
-      <c r="M73" s="92">
+        <v>-92.485388781907318</v>
+      </c>
+      <c r="M73" s="10">
         <f t="shared" si="4"/>
-        <v>-100.96858399999996</v>
-      </c>
-      <c r="N73" s="92">
+        <v>-100.88867733399991</v>
+      </c>
+      <c r="N73" s="10">
         <f t="shared" si="5"/>
-        <v>-98.685175999999956</v>
-      </c>
-      <c r="O73" s="93">
+        <v>-98.607076425999935</v>
+      </c>
+      <c r="O73" s="39">
         <f>ABS($H$57+K73)/$H$57</f>
-        <v>0.27108794573643352</v>
-      </c>
-      <c r="P73" s="93">
+        <v>0.27166480766472795</v>
+      </c>
+      <c r="P73" s="39">
         <f t="shared" si="7"/>
-        <v>0.1031139553550387</v>
-      </c>
-      <c r="Q73" s="93">
+        <v>0.10382375211330121</v>
+      </c>
+      <c r="Q73" s="39">
         <f t="shared" si="8"/>
-        <v>2.1622248062015875E-2</v>
-      </c>
-      <c r="R73" s="93">
+        <v>2.2396537461241227E-2</v>
+      </c>
+      <c r="R73" s="39">
         <f t="shared" si="9"/>
-        <v>4.3748294573643869E-2</v>
+        <v>4.4505073391473526E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:I3"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="G23:I24"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="C21:I22"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="O63:R64"/>
     <mergeCell ref="C61:J62"/>
@@ -9029,12 +9011,6 @@
     <mergeCell ref="C63:F64"/>
     <mergeCell ref="G63:J64"/>
     <mergeCell ref="K63:N64"/>
-    <mergeCell ref="C2:I3"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="G23:I24"/>
-    <mergeCell ref="C23:F24"/>
-    <mergeCell ref="C21:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C8:F14 C15:D15">
@@ -9054,16 +9030,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I14">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -9089,6 +9055,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:F73">
     <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I14">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Project6/Project6i.xlsx
+++ b/Project6/Project6i.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V_anno/II_semestre/Molecular_Modeling_for_Process_Engineering/MMfP/Project6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6808E1-D0FF-254D-9794-E540F58F32AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F2329-8332-EB43-AF0F-59DF7C7A08FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{358C3946-A9E6-BD49-9D1D-BD2010FE3E32}"/>
   </bookViews>
@@ -642,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -689,11 +689,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="13" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,12 +777,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,51 +786,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,21 +795,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="13" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -5557,8 +5552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E67D6CF-1DE0-4C4D-8BCA-BE74FEDBED15}">
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="108" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5580,47 +5575,47 @@
     <row r="2" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:21" ht="23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="62" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="M4" s="68" t="s">
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="M4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -5629,38 +5624,38 @@
     </row>
     <row r="5" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="M5" s="69" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+      <c r="M5" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="N5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="64" t="s">
+      <c r="O5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="P5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="64" t="s">
+      <c r="Q5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="73" t="s">
+      <c r="S5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="64" t="s">
+      <c r="T5" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="66" t="s">
+      <c r="U5" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5685,15 +5680,15 @@
       <c r="I6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="67"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="55"/>
     </row>
     <row r="7" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
@@ -5713,33 +5708,33 @@
       <c r="M7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="78">
+      <c r="N7" s="42">
         <v>1</v>
       </c>
-      <c r="O7" s="79">
+      <c r="O7" s="43">
         <v>27.210699999999999</v>
       </c>
-      <c r="P7" s="79">
+      <c r="P7" s="43">
         <v>219474.63</v>
       </c>
-      <c r="Q7" s="79">
+      <c r="Q7" s="43">
         <v>627.50300000000004</v>
       </c>
-      <c r="R7" s="79">
+      <c r="R7" s="43">
         <v>2625.5</v>
       </c>
-      <c r="S7" s="79">
+      <c r="S7" s="43">
         <v>315777</v>
       </c>
-      <c r="T7" s="80">
+      <c r="T7" s="43">
         <v>4.3599999999999999E-18</v>
       </c>
-      <c r="U7" s="81">
+      <c r="U7" s="44">
         <v>6579660000000000</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -5773,33 +5768,33 @@
       <c r="M8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="82">
+      <c r="N8" s="45">
         <v>3.6750199999999997E-2</v>
       </c>
-      <c r="O8" s="83">
+      <c r="O8" s="46">
         <v>1</v>
       </c>
-      <c r="P8" s="83">
+      <c r="P8" s="46">
         <v>8065.73</v>
       </c>
-      <c r="Q8" s="83">
+      <c r="Q8" s="46">
         <v>23.0609</v>
       </c>
-      <c r="R8" s="83">
+      <c r="R8" s="46">
         <v>96.486900000000006</v>
       </c>
-      <c r="S8" s="83">
+      <c r="S8" s="46">
         <v>11604.9</v>
       </c>
-      <c r="T8" s="84">
+      <c r="T8" s="47">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="U8" s="85">
+      <c r="U8" s="48">
         <v>241804000000000</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
@@ -5830,33 +5825,33 @@
       <c r="M9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="86">
+      <c r="N9" s="45">
         <v>4.5563300000000003E-6</v>
       </c>
-      <c r="O9" s="83">
+      <c r="O9" s="46">
         <v>1.23981E-4</v>
       </c>
-      <c r="P9" s="83">
+      <c r="P9" s="46">
         <v>1</v>
       </c>
-      <c r="Q9" s="83">
+      <c r="Q9" s="46">
         <v>2.8590999999999998E-3</v>
       </c>
-      <c r="R9" s="83">
+      <c r="R9" s="46">
         <v>1.1963E-2</v>
       </c>
-      <c r="S9" s="83">
+      <c r="S9" s="46">
         <v>1.42879</v>
       </c>
-      <c r="T9" s="87">
+      <c r="T9" s="46">
         <v>1.9863000000000001E-23</v>
       </c>
-      <c r="U9" s="88">
+      <c r="U9" s="48">
         <v>29979300000</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="19" t="s">
         <v>9</v>
       </c>
@@ -5887,33 +5882,33 @@
       <c r="M10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="82">
+      <c r="N10" s="45">
         <v>1.59362E-3</v>
       </c>
-      <c r="O10" s="83">
+      <c r="O10" s="46">
         <v>4.3363400000000003E-2</v>
       </c>
-      <c r="P10" s="83">
+      <c r="P10" s="46">
         <v>349.75700000000001</v>
       </c>
-      <c r="Q10" s="83">
+      <c r="Q10" s="46">
         <v>1</v>
       </c>
-      <c r="R10" s="83">
+      <c r="R10" s="46">
         <v>4.1840000000000002</v>
       </c>
-      <c r="S10" s="83">
+      <c r="S10" s="46">
         <v>503.22800000000001</v>
       </c>
-      <c r="T10" s="87">
+      <c r="T10" s="46">
         <v>6.9500000000000005E-21</v>
       </c>
-      <c r="U10" s="85">
+      <c r="U10" s="48">
         <v>10485400000000</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -5944,33 +5939,33 @@
       <c r="M11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="82">
+      <c r="N11" s="45">
         <v>3.8088E-4</v>
       </c>
-      <c r="O11" s="83">
+      <c r="O11" s="46">
         <v>1.0364099999999999E-2</v>
       </c>
-      <c r="P11" s="83">
+      <c r="P11" s="46">
         <v>83.593000000000004</v>
       </c>
-      <c r="Q11" s="83">
+      <c r="Q11" s="46">
         <v>0.23900099999999999</v>
       </c>
-      <c r="R11" s="83">
+      <c r="R11" s="46">
         <v>1</v>
       </c>
-      <c r="S11" s="83">
+      <c r="S11" s="46">
         <v>120.274</v>
       </c>
-      <c r="T11" s="87">
+      <c r="T11" s="46">
         <v>1.6599999999999999E-21</v>
       </c>
-      <c r="U11" s="85">
+      <c r="U11" s="48">
         <v>2506070000000</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19" t="s">
         <v>11</v>
       </c>
@@ -5998,33 +5993,33 @@
       <c r="M12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="86">
+      <c r="N12" s="45">
         <v>3.1667800000000002E-6</v>
       </c>
-      <c r="O12" s="87">
+      <c r="O12" s="46">
         <v>8.6170500000000004E-5</v>
       </c>
-      <c r="P12" s="83">
+      <c r="P12" s="46">
         <v>0.69502799999999998</v>
       </c>
-      <c r="Q12" s="83">
+      <c r="Q12" s="46">
         <v>1.9872000000000002E-3</v>
       </c>
-      <c r="R12" s="83">
+      <c r="R12" s="46">
         <v>8.3140000000000002E-3</v>
       </c>
-      <c r="S12" s="83">
+      <c r="S12" s="46">
         <v>1</v>
       </c>
-      <c r="T12" s="87">
+      <c r="T12" s="46">
         <v>1.38054E-23</v>
       </c>
-      <c r="U12" s="88">
+      <c r="U12" s="48">
         <v>20836400000</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
@@ -6052,33 +6047,33 @@
       <c r="M13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="86">
+      <c r="N13" s="45">
         <v>2.294E+17</v>
       </c>
-      <c r="O13" s="87">
+      <c r="O13" s="46">
         <v>6.24181E+18</v>
       </c>
-      <c r="P13" s="87">
+      <c r="P13" s="46">
         <v>5.0344500000000003E+22</v>
       </c>
-      <c r="Q13" s="87">
+      <c r="Q13" s="46">
         <v>1.44E+20</v>
       </c>
-      <c r="R13" s="87">
+      <c r="R13" s="46">
         <v>6.02E+20</v>
       </c>
-      <c r="S13" s="87">
+      <c r="S13" s="46">
         <v>7.2435399999999999E+22</v>
       </c>
-      <c r="T13" s="83">
+      <c r="T13" s="46">
         <v>1</v>
       </c>
-      <c r="U13" s="85">
+      <c r="U13" s="48">
         <v>1.5093E+33</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="20" t="s">
         <v>13</v>
       </c>
@@ -6109,26 +6104,26 @@
       <c r="M14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="89">
+      <c r="N14" s="49">
         <v>1.5198300000000001E-16</v>
       </c>
-      <c r="O14" s="90">
+      <c r="O14" s="50">
         <v>4.13558E-15</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P14" s="50">
         <v>3.3356499999999997E-11</v>
       </c>
-      <c r="Q14" s="90">
+      <c r="Q14" s="50">
         <v>9.5370000000000002E-14</v>
       </c>
-      <c r="R14" s="91"/>
-      <c r="S14" s="90">
+      <c r="R14" s="50"/>
+      <c r="S14" s="50">
         <v>4.7993E-11</v>
       </c>
-      <c r="T14" s="90">
+      <c r="T14" s="50">
         <v>6.62561E-34</v>
       </c>
-      <c r="U14" s="92">
+      <c r="U14" s="51">
         <v>1</v>
       </c>
     </row>
@@ -6194,49 +6189,49 @@
     </row>
     <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="62" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
@@ -6277,7 +6272,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -6306,7 +6301,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="19" t="s">
         <v>8</v>
       </c>
@@ -6333,7 +6328,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="19" t="s">
         <v>9</v>
       </c>
@@ -6360,7 +6355,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="19" t="s">
         <v>10</v>
       </c>
@@ -6388,7 +6383,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="19" t="s">
         <v>11</v>
       </c>
@@ -6416,7 +6411,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="19" t="s">
         <v>12</v>
       </c>
@@ -6444,7 +6439,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="20" t="s">
         <v>13</v>
       </c>
@@ -6470,12 +6465,12 @@
         <v>18</v>
       </c>
       <c r="J33" s="7"/>
-      <c r="M33" s="59" t="s">
+      <c r="M33" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
       <c r="Q33" s="36">
         <v>103.3</v>
       </c>
@@ -6537,129 +6532,129 @@
     </row>
     <row r="39" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="B39" s="25"/>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="7"/>
-      <c r="N39" s="42" t="s">
+      <c r="N39" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
     </row>
     <row r="40" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="61"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="70"/>
       <c r="J40" s="7"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
     </row>
     <row r="41" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="62" t="s">
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="62"/>
-      <c r="I41" s="63"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
       <c r="J41" s="7"/>
-      <c r="N41" s="50" t="s">
+      <c r="N41" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="50" t="s">
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="44" t="s">
+      <c r="S41" s="67"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="44" t="s">
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="77"/>
+      <c r="Z41" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="44" t="s">
+      <c r="AA41" s="76"/>
+      <c r="AB41" s="76"/>
+      <c r="AC41" s="77"/>
+      <c r="AD41" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="45"/>
-      <c r="AG41" s="46"/>
+      <c r="AE41" s="76"/>
+      <c r="AF41" s="76"/>
+      <c r="AG41" s="77"/>
     </row>
     <row r="42" spans="1:33" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="63"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="7"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="49"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="48"/>
-      <c r="AB42" s="48"/>
-      <c r="AC42" s="49"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="48"/>
-      <c r="AF42" s="48"/>
-      <c r="AG42" s="49"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="83"/>
+      <c r="T42" s="83"/>
+      <c r="U42" s="84"/>
+      <c r="V42" s="78"/>
+      <c r="W42" s="79"/>
+      <c r="X42" s="79"/>
+      <c r="Y42" s="80"/>
+      <c r="Z42" s="78"/>
+      <c r="AA42" s="79"/>
+      <c r="AB42" s="79"/>
+      <c r="AC42" s="80"/>
+      <c r="AD42" s="78"/>
+      <c r="AE42" s="79"/>
+      <c r="AF42" s="79"/>
+      <c r="AG42" s="80"/>
     </row>
     <row r="43" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18"/>
@@ -6792,7 +6787,7 @@
       </c>
     </row>
     <row r="45" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -6820,7 +6815,7 @@
         <v>18</v>
       </c>
       <c r="J45" s="7"/>
-      <c r="M45" s="56" t="s">
+      <c r="M45" s="71" t="s">
         <v>32</v>
       </c>
       <c r="N45" s="8">
@@ -6905,7 +6900,7 @@
       </c>
     </row>
     <row r="46" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="19" t="s">
         <v>8</v>
       </c>
@@ -6931,7 +6926,7 @@
         <v>18</v>
       </c>
       <c r="J46" s="7"/>
-      <c r="M46" s="57"/>
+      <c r="M46" s="72"/>
       <c r="N46" s="9">
         <f t="shared" ref="N46:N51" si="5">C9*$Q$7</f>
         <v>-25183.340702866</v>
@@ -7014,7 +7009,7 @@
       </c>
     </row>
     <row r="47" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="19" t="s">
         <v>9</v>
       </c>
@@ -7040,7 +7035,7 @@
         <v>18</v>
       </c>
       <c r="J47" s="7"/>
-      <c r="M47" s="57"/>
+      <c r="M47" s="72"/>
       <c r="N47" s="9">
         <f t="shared" si="5"/>
         <v>-25183.823252673003</v>
@@ -7123,7 +7118,7 @@
       </c>
     </row>
     <row r="48" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="19" t="s">
         <v>10</v>
       </c>
@@ -7149,7 +7144,7 @@
         <v>18</v>
       </c>
       <c r="J48" s="7"/>
-      <c r="M48" s="57"/>
+      <c r="M48" s="72"/>
       <c r="N48" s="9">
         <f t="shared" si="5"/>
         <v>-25183.850235302001</v>
@@ -7232,7 +7227,7 @@
       </c>
     </row>
     <row r="49" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="19" t="s">
         <v>11</v>
       </c>
@@ -7258,7 +7253,7 @@
         <v>18</v>
       </c>
       <c r="J49" s="7"/>
-      <c r="M49" s="57"/>
+      <c r="M49" s="72"/>
       <c r="N49" s="9">
         <f t="shared" si="5"/>
         <v>-25195.342325244001</v>
@@ -7341,7 +7336,7 @@
       </c>
     </row>
     <row r="50" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="19" t="s">
         <v>12</v>
       </c>
@@ -7367,7 +7362,7 @@
         <v>18</v>
       </c>
       <c r="J50" s="7"/>
-      <c r="M50" s="57"/>
+      <c r="M50" s="72"/>
       <c r="N50" s="9">
         <f t="shared" si="5"/>
         <v>-25204.628114637999</v>
@@ -7450,7 +7445,7 @@
       </c>
     </row>
     <row r="51" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="20" t="s">
         <v>13</v>
       </c>
@@ -7476,7 +7471,7 @@
         <v>18</v>
       </c>
       <c r="J51" s="7"/>
-      <c r="M51" s="58"/>
+      <c r="M51" s="73"/>
       <c r="N51" s="10">
         <f t="shared" si="5"/>
         <v>-25196.113526431003</v>
@@ -7626,6 +7621,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AD41:AG42"/>
+    <mergeCell ref="N41:Q42"/>
+    <mergeCell ref="R41:U42"/>
+    <mergeCell ref="V41:Y42"/>
+    <mergeCell ref="Z41:AC42"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M45:M51"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:I42"/>
+    <mergeCell ref="N39:Y40"/>
+    <mergeCell ref="C2:I3"/>
+    <mergeCell ref="C21:I22"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="G23:I24"/>
+    <mergeCell ref="C39:I40"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="M4:P4"/>
@@ -7638,24 +7651,6 @@
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
-    <mergeCell ref="C2:I3"/>
-    <mergeCell ref="C21:I22"/>
-    <mergeCell ref="C23:F24"/>
-    <mergeCell ref="G23:I24"/>
-    <mergeCell ref="C39:I40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M45:M51"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:I42"/>
-    <mergeCell ref="N39:Y40"/>
-    <mergeCell ref="AD41:AG42"/>
-    <mergeCell ref="N41:Q42"/>
-    <mergeCell ref="R41:U42"/>
-    <mergeCell ref="V41:Y42"/>
-    <mergeCell ref="Z41:AC42"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:F14">
     <cfRule type="colorScale" priority="10">
@@ -7756,7 +7751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9929B575-9856-E34B-A8DE-9F65D85FFCD5}">
   <dimension ref="B1:R73"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="94" workbookViewId="0">
       <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
@@ -7765,49 +7760,49 @@
     <row r="1" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="33"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="33"/>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
     </row>
     <row r="6" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="33"/>
@@ -8074,49 +8069,49 @@
     <row r="20" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="32"/>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="33"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76" t="s">
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="87"/>
     </row>
     <row r="24" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="33"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="77"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="87"/>
     </row>
     <row r="25" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
@@ -8365,89 +8360,89 @@
       </c>
     </row>
     <row r="57" spans="3:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
       <c r="H57" s="36">
         <v>103.2</v>
       </c>
     </row>
     <row r="61" spans="3:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
       <c r="K61" s="40"/>
       <c r="L61" s="40"/>
       <c r="M61" s="40"/>
       <c r="N61" s="40"/>
     </row>
     <row r="62" spans="3:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
       <c r="K62" s="41"/>
       <c r="L62" s="41"/>
       <c r="M62" s="41"/>
       <c r="N62" s="41"/>
     </row>
     <row r="63" spans="3:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="50" t="s">
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="44" t="s">
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="44" t="s">
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="46"/>
+      <c r="P63" s="76"/>
+      <c r="Q63" s="76"/>
+      <c r="R63" s="77"/>
     </row>
     <row r="64" spans="3:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="53"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="49"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="80"/>
+      <c r="O64" s="78"/>
+      <c r="P64" s="79"/>
+      <c r="Q64" s="79"/>
+      <c r="R64" s="80"/>
     </row>
     <row r="65" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="8" t="s">
@@ -8526,7 +8521,7 @@
       </c>
     </row>
     <row r="67" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="71" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="8">
@@ -8595,7 +8590,7 @@
       </c>
     </row>
     <row r="68" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
+      <c r="B68" s="72"/>
       <c r="C68" s="9">
         <f>C9*'CH4-&gt;CH3 + H'!$Q$7</f>
         <v>-700.442066211</v>
@@ -8662,7 +8657,7 @@
       </c>
     </row>
     <row r="69" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
+      <c r="B69" s="72"/>
       <c r="C69" s="9">
         <f>C10*'CH4-&gt;CH3 + H'!$Q$7</f>
         <v>-700.442066211</v>
@@ -8729,7 +8724,7 @@
       </c>
     </row>
     <row r="70" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B70" s="57"/>
+      <c r="B70" s="72"/>
       <c r="C70" s="9">
         <f>C11*'CH4-&gt;CH3 + H'!$Q$7</f>
         <v>-700.51548406200004</v>
@@ -8796,7 +8791,7 @@
       </c>
     </row>
     <row r="71" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
+      <c r="B71" s="72"/>
       <c r="C71" s="9">
         <f>C12*'CH4-&gt;CH3 + H'!$Q$7</f>
         <v>-701.74664494800015</v>
@@ -8863,7 +8858,7 @@
       </c>
     </row>
     <row r="72" spans="2:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="B72" s="57"/>
+      <c r="B72" s="72"/>
       <c r="C72" s="9">
         <f>C13*'CH4-&gt;CH3 + H'!$Q$7</f>
         <v>-704.39596261400004</v>
@@ -8930,7 +8925,7 @@
       </c>
     </row>
     <row r="73" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="58"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="10">
         <f>C14*'CH4-&gt;CH3 + H'!$Q$7</f>
         <v>-701.8313578530001</v>
@@ -8998,12 +8993,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:I3"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="G23:I24"/>
-    <mergeCell ref="C23:F24"/>
-    <mergeCell ref="C21:I22"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="O63:R64"/>
     <mergeCell ref="C61:J62"/>
@@ -9011,6 +9000,12 @@
     <mergeCell ref="C63:F64"/>
     <mergeCell ref="G63:J64"/>
     <mergeCell ref="K63:N64"/>
+    <mergeCell ref="C2:I3"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="G23:I24"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="C21:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C8:F14 C15:D15">
